--- a/public/upload/elections/2016/2_23.03.2016-12.04.2016.xlsx
+++ b/public/upload/elections/2016/2_23.03.2016-12.04.2016.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="450" windowWidth="14940" windowHeight="7215" tabRatio="954"/>
+    <workbookView xWindow="120" yWindow="450" windowWidth="14940" windowHeight="7215" tabRatio="954" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ფორმა N1" sheetId="45" r:id="rId1"/>
@@ -64,7 +64,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'ფორმა N1'!$A$1:$L$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'ფორმა N2'!$A$1:$E$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'ფორმა N3'!$A$1:$E$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'ფორმა N5'!$A$1:$D$86</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'ფორმა N5'!$A$1:$D$85</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'ფორმა N5.1'!$A$1:$D$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'ფორმა N7'!$A$1:$E$90</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">'ფორმა N9'!$A$1:$K$52</definedName>
@@ -73,12 +73,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="20">'ფორმა N9.7.1'!$A$1:$N$25</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="1343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="1341">
   <si>
     <t>პრემია</t>
   </si>
@@ -1622,12 +1621,6 @@
   </si>
   <si>
     <t xml:space="preserve">ფორმა N5.4 - სხვა განაცემები ფიზიკურ პირებზე (ხელფასის და პრემიის გარდა) </t>
-  </si>
-  <si>
-    <t>გარე რეკლამის ხარჯი *</t>
-  </si>
-  <si>
-    <t>1.2.8.6</t>
   </si>
   <si>
     <t>* ბილბორდი, ლაით ბოქსი, ქუჩაში დამონტაჟებული ეკრანი, სატრანსპორტო საშუალებებზე განთავსებული რეკლამა და სხვა.</t>
@@ -7519,13 +7512,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>775607</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1318532</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7563,13 +7556,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2086495</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4827200</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>182563</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8563,7 +8556,7 @@
   </sheetPr>
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -8618,7 +8611,7 @@
       <c r="J2" s="271"/>
       <c r="K2" s="271"/>
       <c r="L2" s="468" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="M2" s="469"/>
     </row>
@@ -8638,7 +8631,7 @@
     </row>
     <row r="4" spans="1:13" s="275" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="283" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B4" s="272"/>
       <c r="C4" s="272"/>
@@ -8656,7 +8649,7 @@
     </row>
     <row r="5" spans="1:13" s="275" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="461" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B5" s="462"/>
       <c r="C5" s="462"/>
@@ -8680,7 +8673,7 @@
       <c r="G6" s="272"/>
       <c r="H6" s="272"/>
       <c r="I6" s="470" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="J6" s="471"/>
       <c r="K6" s="472"/>
@@ -8694,16 +8687,16 @@
         <v>130</v>
       </c>
       <c r="C7" s="293" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D7" s="294" t="s">
         <v>269</v>
       </c>
       <c r="E7" s="295" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F7" s="296" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G7" s="297" t="s">
         <v>217</v>
@@ -8712,7 +8705,7 @@
         <v>214</v>
       </c>
       <c r="I7" s="299" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="J7" s="300" t="s">
         <v>266</v>
@@ -8767,25 +8760,25 @@
         <v>1</v>
       </c>
       <c r="B9" s="311" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C9" s="312" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D9" s="313">
         <v>100</v>
       </c>
       <c r="E9" s="314" t="s">
+        <v>491</v>
+      </c>
+      <c r="F9" s="315" t="s">
+        <v>492</v>
+      </c>
+      <c r="G9" s="316" t="s">
         <v>493</v>
       </c>
-      <c r="F9" s="315" t="s">
+      <c r="H9" s="316" t="s">
         <v>494</v>
-      </c>
-      <c r="G9" s="316" t="s">
-        <v>495</v>
-      </c>
-      <c r="H9" s="316" t="s">
-        <v>496</v>
       </c>
       <c r="I9" s="317"/>
       <c r="J9" s="318"/>
@@ -8797,25 +8790,25 @@
         <v>2</v>
       </c>
       <c r="B10" s="311" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C10" s="312" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D10" s="322">
         <v>100</v>
       </c>
       <c r="E10" s="323" t="s">
+        <v>495</v>
+      </c>
+      <c r="F10" s="315" t="s">
+        <v>496</v>
+      </c>
+      <c r="G10" s="315" t="s">
         <v>497</v>
       </c>
-      <c r="F10" s="315" t="s">
-        <v>498</v>
-      </c>
-      <c r="G10" s="315" t="s">
-        <v>499</v>
-      </c>
       <c r="H10" s="315" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I10" s="324"/>
       <c r="J10" s="325"/>
@@ -8827,25 +8820,25 @@
         <v>3</v>
       </c>
       <c r="B11" s="311" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C11" s="312" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D11" s="322">
         <v>100</v>
       </c>
       <c r="E11" s="323" t="s">
+        <v>499</v>
+      </c>
+      <c r="F11" s="315" t="s">
+        <v>500</v>
+      </c>
+      <c r="G11" s="315" t="s">
         <v>501</v>
       </c>
-      <c r="F11" s="315" t="s">
+      <c r="H11" s="315" t="s">
         <v>502</v>
-      </c>
-      <c r="G11" s="315" t="s">
-        <v>503</v>
-      </c>
-      <c r="H11" s="315" t="s">
-        <v>504</v>
       </c>
       <c r="I11" s="324"/>
       <c r="J11" s="325"/>
@@ -8857,25 +8850,25 @@
         <v>4</v>
       </c>
       <c r="B12" s="311" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C12" s="312" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D12" s="322">
         <v>100</v>
       </c>
       <c r="E12" s="323" t="s">
+        <v>504</v>
+      </c>
+      <c r="F12" s="315" t="s">
+        <v>505</v>
+      </c>
+      <c r="G12" s="315" t="s">
         <v>506</v>
       </c>
-      <c r="F12" s="315" t="s">
-        <v>507</v>
-      </c>
-      <c r="G12" s="315" t="s">
-        <v>508</v>
-      </c>
       <c r="H12" s="315" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I12" s="324"/>
       <c r="J12" s="325"/>
@@ -8887,25 +8880,25 @@
         <v>5</v>
       </c>
       <c r="B13" s="311" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C13" s="312" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D13" s="322">
         <v>100</v>
       </c>
       <c r="E13" s="323" t="s">
+        <v>507</v>
+      </c>
+      <c r="F13" s="315" t="s">
+        <v>508</v>
+      </c>
+      <c r="G13" s="315" t="s">
         <v>509</v>
       </c>
-      <c r="F13" s="315" t="s">
+      <c r="H13" s="315" t="s">
         <v>510</v>
-      </c>
-      <c r="G13" s="315" t="s">
-        <v>511</v>
-      </c>
-      <c r="H13" s="315" t="s">
-        <v>512</v>
       </c>
       <c r="I13" s="324"/>
       <c r="J13" s="325"/>
@@ -8917,25 +8910,25 @@
         <v>6</v>
       </c>
       <c r="B14" s="311" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C14" s="312" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D14" s="322">
         <v>100</v>
       </c>
       <c r="E14" s="323" t="s">
+        <v>512</v>
+      </c>
+      <c r="F14" s="315" t="s">
+        <v>513</v>
+      </c>
+      <c r="G14" s="315" t="s">
         <v>514</v>
       </c>
-      <c r="F14" s="315" t="s">
-        <v>515</v>
-      </c>
-      <c r="G14" s="315" t="s">
-        <v>516</v>
-      </c>
       <c r="H14" s="315" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I14" s="324"/>
       <c r="J14" s="325"/>
@@ -8947,25 +8940,25 @@
         <v>7</v>
       </c>
       <c r="B15" s="311" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C15" s="312" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D15" s="322">
         <v>100</v>
       </c>
       <c r="E15" s="323" t="s">
+        <v>516</v>
+      </c>
+      <c r="F15" s="315" t="s">
+        <v>517</v>
+      </c>
+      <c r="G15" s="315" t="s">
         <v>518</v>
       </c>
-      <c r="F15" s="315" t="s">
+      <c r="H15" s="315" t="s">
         <v>519</v>
-      </c>
-      <c r="G15" s="315" t="s">
-        <v>520</v>
-      </c>
-      <c r="H15" s="315" t="s">
-        <v>521</v>
       </c>
       <c r="I15" s="324"/>
       <c r="J15" s="325"/>
@@ -8977,25 +8970,25 @@
         <v>8</v>
       </c>
       <c r="B16" s="311" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C16" s="312" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D16" s="322">
         <v>100</v>
       </c>
       <c r="E16" s="323" t="s">
+        <v>521</v>
+      </c>
+      <c r="F16" s="315" t="s">
+        <v>522</v>
+      </c>
+      <c r="G16" s="315" t="s">
         <v>523</v>
       </c>
-      <c r="F16" s="315" t="s">
-        <v>524</v>
-      </c>
-      <c r="G16" s="315" t="s">
-        <v>525</v>
-      </c>
       <c r="H16" s="315" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I16" s="324"/>
       <c r="J16" s="325"/>
@@ -9007,25 +9000,25 @@
         <v>9</v>
       </c>
       <c r="B17" s="311" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C17" s="312" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D17" s="322">
         <v>100</v>
       </c>
       <c r="E17" s="323" t="s">
+        <v>525</v>
+      </c>
+      <c r="F17" s="315" t="s">
+        <v>526</v>
+      </c>
+      <c r="G17" s="315" t="s">
         <v>527</v>
       </c>
-      <c r="F17" s="315" t="s">
-        <v>528</v>
-      </c>
-      <c r="G17" s="315" t="s">
-        <v>529</v>
-      </c>
       <c r="H17" s="315" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I17" s="324"/>
       <c r="J17" s="325"/>
@@ -9037,30 +9030,30 @@
         <v>10</v>
       </c>
       <c r="B18" s="311" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C18" s="312" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D18" s="322">
         <v>9000</v>
       </c>
       <c r="E18" s="323" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F18" s="315" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G18" s="315"/>
       <c r="H18" s="315"/>
       <c r="I18" s="324" t="s">
+        <v>532</v>
+      </c>
+      <c r="J18" s="325" t="s">
+        <v>533</v>
+      </c>
+      <c r="K18" s="326" t="s">
         <v>534</v>
-      </c>
-      <c r="J18" s="325" t="s">
-        <v>535</v>
-      </c>
-      <c r="K18" s="326" t="s">
-        <v>536</v>
       </c>
       <c r="L18" s="327"/>
     </row>
@@ -9142,7 +9135,7 @@
     </row>
     <row r="24" spans="1:12" s="338" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="473" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B24" s="473"/>
       <c r="C24" s="473"/>
@@ -9172,7 +9165,7 @@
     </row>
     <row r="26" spans="1:12" s="275" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="473" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B26" s="473"/>
       <c r="C26" s="473"/>
@@ -9202,7 +9195,7 @@
     </row>
     <row r="28" spans="1:12" s="275" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="473" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B28" s="473"/>
       <c r="C28" s="473"/>
@@ -9313,7 +9306,7 @@
       <c r="F35" s="265"/>
       <c r="G35" s="266"/>
       <c r="H35" s="466" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="I35" s="343"/>
       <c r="J35" s="266"/>
@@ -9450,7 +9443,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="350" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B5" s="113"/>
       <c r="C5" s="113"/>
@@ -10418,7 +10411,7 @@
       <c r="G2" s="71"/>
       <c r="H2" s="71"/>
       <c r="I2" s="474" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J2" s="474"/>
       <c r="K2" s="99"/>
@@ -10454,7 +10447,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="350" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B5" s="223"/>
       <c r="C5" s="223"/>
@@ -10564,7 +10557,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="440" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="C10" s="145"/>
       <c r="D10" s="146" t="s">
@@ -10585,7 +10578,7 @@
         <v>84096.109999999986</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="K10" s="99"/>
     </row>
@@ -10789,7 +10782,7 @@
       <c r="E2" s="71"/>
       <c r="F2" s="71"/>
       <c r="G2" s="474" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H2" s="474"/>
     </row>
@@ -10818,7 +10811,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="350" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B5" s="209"/>
       <c r="C5" s="209"/>
@@ -11759,7 +11752,7 @@
       <c r="G2" s="131"/>
       <c r="H2" s="131"/>
       <c r="I2" s="474" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J2" s="474"/>
       <c r="K2" s="135"/>
@@ -11796,7 +11789,7 @@
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="366" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B5" s="351"/>
       <c r="C5" s="351"/>
@@ -13627,7 +13620,7 @@
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="366" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B5" s="351"/>
       <c r="C5" s="351"/>
@@ -13669,7 +13662,7 @@
         <v>224</v>
       </c>
       <c r="E7" s="374" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="F7" s="374" t="s">
         <v>229</v>
@@ -13717,10 +13710,10 @@
         <v>227</v>
       </c>
       <c r="C9" s="377" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="D9" s="377" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E9" s="377">
         <v>480.8</v>
@@ -13742,10 +13735,10 @@
         <v>227</v>
       </c>
       <c r="C10" s="377" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D10" s="377" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E10" s="377">
         <v>108.5</v>
@@ -13767,10 +13760,10 @@
         <v>227</v>
       </c>
       <c r="C11" s="377" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D11" s="377" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E11" s="377">
         <v>77</v>
@@ -13792,10 +13785,10 @@
         <v>227</v>
       </c>
       <c r="C12" s="377" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D12" s="377" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E12" s="377">
         <v>180</v>
@@ -13817,10 +13810,10 @@
         <v>227</v>
       </c>
       <c r="C13" s="377" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D13" s="377" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E13" s="377">
         <v>250.7</v>
@@ -13842,10 +13835,10 @@
         <v>227</v>
       </c>
       <c r="C14" s="377" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D14" s="377" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E14" s="377">
         <v>2406.19</v>
@@ -13867,10 +13860,10 @@
         <v>227</v>
       </c>
       <c r="C15" s="377" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D15" s="377" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E15" s="377">
         <v>52</v>
@@ -14623,7 +14616,7 @@
     </row>
     <row r="5" spans="1:10" s="401" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="402" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B5" s="403"/>
       <c r="C5" s="403"/>
@@ -14712,19 +14705,19 @@
         <v>1</v>
       </c>
       <c r="B9" s="414" t="s">
+        <v>955</v>
+      </c>
+      <c r="C9" s="414" t="s">
+        <v>956</v>
+      </c>
+      <c r="D9" s="414" t="s">
         <v>957</v>
-      </c>
-      <c r="C9" s="414" t="s">
-        <v>958</v>
-      </c>
-      <c r="D9" s="414" t="s">
-        <v>959</v>
       </c>
       <c r="E9" s="414">
         <v>2007</v>
       </c>
       <c r="F9" s="414" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="G9" s="414">
         <v>38428.370000000003</v>
@@ -14740,19 +14733,19 @@
         <v>2</v>
       </c>
       <c r="B10" s="414" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C10" s="414" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D10" s="414" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E10" s="414">
         <v>2011</v>
       </c>
       <c r="F10" s="414" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="G10" s="414">
         <v>88697.600000000006</v>
@@ -14768,19 +14761,19 @@
         <v>3</v>
       </c>
       <c r="B11" s="414" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C11" s="414" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D11" s="414" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="E11" s="414">
         <v>2007</v>
       </c>
       <c r="F11" s="414" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="G11" s="414">
         <v>21221.79</v>
@@ -14796,19 +14789,19 @@
         <v>4</v>
       </c>
       <c r="B12" s="414" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C12" s="414" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D12" s="414" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E12" s="414">
         <v>2012</v>
       </c>
       <c r="F12" s="414" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="G12" s="414">
         <v>22825.19</v>
@@ -14824,19 +14817,19 @@
         <v>5</v>
       </c>
       <c r="B13" s="414" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C13" s="414" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D13" s="414" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E13" s="414">
         <v>2012</v>
       </c>
       <c r="F13" s="414" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="G13" s="414">
         <v>16552.36</v>
@@ -14852,19 +14845,19 @@
         <v>6</v>
       </c>
       <c r="B14" s="414" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C14" s="414" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D14" s="414" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="E14" s="414">
         <v>2013</v>
       </c>
       <c r="F14" s="414" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="G14" s="414">
         <v>32998.639999999999</v>
@@ -14880,25 +14873,25 @@
         <v>7</v>
       </c>
       <c r="B15" s="414" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C15" s="414" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D15" s="414" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="E15" s="414">
         <v>1996</v>
       </c>
       <c r="F15" s="414" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="G15" s="414">
         <v>14703.39</v>
       </c>
       <c r="H15" s="416" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="I15" s="414"/>
       <c r="J15" s="407"/>
@@ -14908,19 +14901,19 @@
         <v>8</v>
       </c>
       <c r="B16" s="414" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C16" s="414" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="D16" s="414" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="E16" s="414">
         <v>2013</v>
       </c>
       <c r="F16" s="414" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="G16" s="414">
         <v>22166.42</v>
@@ -14936,25 +14929,25 @@
         <v>9</v>
       </c>
       <c r="B17" s="414" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C17" s="414" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D17" s="414" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E17" s="414">
         <v>2000</v>
       </c>
       <c r="F17" s="414" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="G17" s="414">
         <v>11220.610000000006</v>
       </c>
       <c r="H17" s="417" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="I17" s="414"/>
       <c r="J17" s="407"/>
@@ -14964,25 +14957,25 @@
         <v>10</v>
       </c>
       <c r="B18" s="414" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C18" s="414" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D18" s="414" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E18" s="414">
         <v>2000</v>
       </c>
       <c r="F18" s="414" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="G18" s="414">
         <v>11160.900000000007</v>
       </c>
       <c r="H18" s="417" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="I18" s="414"/>
       <c r="J18" s="407"/>
@@ -14992,19 +14985,19 @@
         <v>11</v>
       </c>
       <c r="B19" s="414" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C19" s="414" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D19" s="414" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E19" s="414">
         <v>2001</v>
       </c>
       <c r="F19" s="414" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="G19" s="414">
         <v>10610.490000000007</v>
@@ -15020,19 +15013,19 @@
         <v>12</v>
       </c>
       <c r="B20" s="414" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C20" s="414" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D20" s="414" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E20" s="414">
         <v>2001</v>
       </c>
       <c r="F20" s="414" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="G20" s="414">
         <v>9517.4100000000071</v>
@@ -15048,19 +15041,19 @@
         <v>13</v>
       </c>
       <c r="B21" s="414" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C21" s="414" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D21" s="414" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E21" s="414">
         <v>2001</v>
       </c>
       <c r="F21" s="414" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="G21" s="414">
         <v>9758.0100000000075</v>
@@ -15076,19 +15069,19 @@
         <v>14</v>
       </c>
       <c r="B22" s="414" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C22" s="414" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="D22" s="414" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="E22" s="414">
         <v>2000</v>
       </c>
       <c r="F22" s="414" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="G22" s="414">
         <v>8026.0200000000077</v>
@@ -15104,25 +15097,25 @@
         <v>15</v>
       </c>
       <c r="B23" s="414" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C23" s="414" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D23" s="414" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E23" s="414">
         <v>2001</v>
       </c>
       <c r="F23" s="414" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="G23" s="414">
         <v>10765.66</v>
       </c>
       <c r="H23" s="416" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="I23" s="414"/>
       <c r="J23" s="407"/>
@@ -15132,25 +15125,25 @@
         <v>16</v>
       </c>
       <c r="B24" s="414" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C24" s="414" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D24" s="414" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E24" s="414">
         <v>2001</v>
       </c>
       <c r="F24" s="414" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="G24" s="414">
         <v>10748.86</v>
       </c>
       <c r="H24" s="416" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="I24" s="414"/>
       <c r="J24" s="407"/>
@@ -15160,25 +15153,25 @@
         <v>17</v>
       </c>
       <c r="B25" s="414" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C25" s="414" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D25" s="414" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E25" s="414">
         <v>2000</v>
       </c>
       <c r="F25" s="414" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="G25" s="414">
         <v>14486.14</v>
       </c>
       <c r="H25" s="417" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="I25" s="414"/>
       <c r="J25" s="407"/>
@@ -15375,7 +15368,7 @@
       <c r="E2" s="182"/>
       <c r="F2" s="182"/>
       <c r="G2" s="474" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H2" s="474"/>
     </row>
@@ -15403,7 +15396,7 @@
     </row>
     <row r="5" spans="1:8" s="183" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="350" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B5" s="186"/>
       <c r="C5" s="186"/>
@@ -15720,7 +15713,7 @@
       <c r="I2" s="393"/>
       <c r="J2" s="393"/>
       <c r="K2" s="468" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L2" s="469"/>
     </row>
@@ -15755,7 +15748,7 @@
     </row>
     <row r="5" spans="1:12" s="434" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="430" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B5" s="431"/>
       <c r="C5" s="431"/>
@@ -15856,13 +15849,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="435" t="s">
+        <v>995</v>
+      </c>
+      <c r="C9" s="414" t="s">
+        <v>996</v>
+      </c>
+      <c r="D9" s="414" t="s">
         <v>997</v>
-      </c>
-      <c r="C9" s="414" t="s">
-        <v>998</v>
-      </c>
-      <c r="D9" s="414" t="s">
-        <v>999</v>
       </c>
       <c r="E9" s="414">
         <v>950.17</v>
@@ -15877,7 +15870,7 @@
         <v>402003318</v>
       </c>
       <c r="K9" s="414" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.2">
@@ -15885,13 +15878,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="435" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C10" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D10" s="414" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E10" s="414">
         <v>150</v>
@@ -15903,10 +15896,10 @@
       <c r="H10" s="436"/>
       <c r="I10" s="436"/>
       <c r="J10" s="436" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="K10" s="414" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.2">
@@ -15914,13 +15907,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="435" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C11" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D11" s="414" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E11" s="414">
         <v>50.24</v>
@@ -15929,13 +15922,13 @@
         <v>1225</v>
       </c>
       <c r="G11" s="414" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H11" s="436" t="s">
+        <v>1006</v>
+      </c>
+      <c r="I11" s="436" t="s">
         <v>1007</v>
-      </c>
-      <c r="H11" s="436" t="s">
-        <v>1008</v>
-      </c>
-      <c r="I11" s="436" t="s">
-        <v>1009</v>
       </c>
       <c r="J11" s="436"/>
       <c r="K11" s="414"/>
@@ -15945,13 +15938,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="437" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C12" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D12" s="414" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E12" s="414">
         <v>100</v>
@@ -15963,10 +15956,10 @@
       <c r="H12" s="436"/>
       <c r="I12" s="436"/>
       <c r="J12" s="436" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="K12" s="414" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.2">
@@ -15974,13 +15967,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="435" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C13" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D13" s="414" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E13" s="414">
         <v>19</v>
@@ -15989,13 +15982,13 @@
         <v>375</v>
       </c>
       <c r="G13" s="414" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="H13" s="436" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="I13" s="436" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="J13" s="436"/>
       <c r="K13" s="414"/>
@@ -16005,13 +15998,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="435" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C14" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D14" s="414" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E14" s="414">
         <v>137</v>
@@ -16020,13 +16013,13 @@
         <v>1500</v>
       </c>
       <c r="G14" s="414" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="H14" s="436" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="I14" s="436" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="J14" s="436"/>
       <c r="K14" s="414"/>
@@ -16036,28 +16029,28 @@
         <v>7</v>
       </c>
       <c r="B15" s="435" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C15" s="414" t="s">
+        <v>996</v>
+      </c>
+      <c r="D15" s="438" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E15" s="414" t="s">
         <v>1022</v>
-      </c>
-      <c r="C15" s="414" t="s">
-        <v>998</v>
-      </c>
-      <c r="D15" s="438" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E15" s="414" t="s">
-        <v>1024</v>
       </c>
       <c r="F15" s="414">
         <v>1000</v>
       </c>
       <c r="G15" s="414" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="H15" s="436" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="I15" s="436" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="J15" s="436"/>
       <c r="K15" s="414"/>
@@ -16067,13 +16060,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="435" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C16" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D16" s="414" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="E16" s="414">
         <v>100</v>
@@ -16088,7 +16081,7 @@
         <v>406124929</v>
       </c>
       <c r="K16" s="414" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="75" x14ac:dyDescent="0.2">
@@ -16096,16 +16089,16 @@
         <v>9</v>
       </c>
       <c r="B17" s="435" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C17" s="414" t="s">
+        <v>996</v>
+      </c>
+      <c r="D17" s="414" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E17" s="414" t="s">
         <v>1030</v>
-      </c>
-      <c r="C17" s="414" t="s">
-        <v>998</v>
-      </c>
-      <c r="D17" s="414" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E17" s="414" t="s">
-        <v>1032</v>
       </c>
       <c r="F17" s="414">
         <v>6200</v>
@@ -16114,10 +16107,10 @@
       <c r="H17" s="436"/>
       <c r="I17" s="436"/>
       <c r="J17" s="436" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="K17" s="414" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.2">
@@ -16125,28 +16118,28 @@
         <v>10</v>
       </c>
       <c r="B18" s="435" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C18" s="414" t="s">
+        <v>996</v>
+      </c>
+      <c r="D18" s="414" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E18" s="414" t="s">
         <v>1035</v>
-      </c>
-      <c r="C18" s="414" t="s">
-        <v>998</v>
-      </c>
-      <c r="D18" s="414" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E18" s="414" t="s">
-        <v>1037</v>
       </c>
       <c r="F18" s="414">
         <v>1000</v>
       </c>
       <c r="G18" s="414" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H18" s="436" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="I18" s="436" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="J18" s="436"/>
       <c r="K18" s="414"/>
@@ -16156,28 +16149,28 @@
         <v>11</v>
       </c>
       <c r="B19" s="435" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C19" s="414" t="s">
+        <v>996</v>
+      </c>
+      <c r="D19" s="414" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E19" s="414" t="s">
         <v>1040</v>
-      </c>
-      <c r="C19" s="414" t="s">
-        <v>998</v>
-      </c>
-      <c r="D19" s="414" t="s">
-        <v>1041</v>
-      </c>
-      <c r="E19" s="414" t="s">
-        <v>1042</v>
       </c>
       <c r="F19" s="414">
         <v>1000</v>
       </c>
       <c r="G19" s="414" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H19" s="436" t="s">
+        <v>1042</v>
+      </c>
+      <c r="I19" s="436" t="s">
         <v>1043</v>
-      </c>
-      <c r="H19" s="436" t="s">
-        <v>1044</v>
-      </c>
-      <c r="I19" s="436" t="s">
-        <v>1045</v>
       </c>
       <c r="J19" s="436"/>
       <c r="K19" s="414"/>
@@ -16187,13 +16180,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="435" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C20" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D20" s="414" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="E20" s="414">
         <v>174.45</v>
@@ -16205,10 +16198,10 @@
         <v>61006005643</v>
       </c>
       <c r="H20" s="436" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="I20" s="436" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="J20" s="436"/>
       <c r="K20" s="414"/>
@@ -16218,13 +16211,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="435" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C21" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D21" s="414" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="E21" s="414">
         <v>94.1</v>
@@ -16236,10 +16229,10 @@
       <c r="H21" s="436"/>
       <c r="I21" s="436"/>
       <c r="J21" s="436" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="K21" s="414" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.2">
@@ -16247,13 +16240,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="435" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C22" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D22" s="414" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E22" s="414">
         <v>44</v>
@@ -16262,13 +16255,13 @@
         <v>687.5</v>
       </c>
       <c r="G22" s="414" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H22" s="436" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I22" s="436" t="s">
         <v>1056</v>
-      </c>
-      <c r="H22" s="436" t="s">
-        <v>1057</v>
-      </c>
-      <c r="I22" s="436" t="s">
-        <v>1058</v>
       </c>
       <c r="J22" s="436"/>
       <c r="K22" s="414"/>
@@ -16278,13 +16271,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="435" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="C23" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D23" s="414" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="E23" s="414">
         <v>90.82</v>
@@ -16293,13 +16286,13 @@
         <v>700</v>
       </c>
       <c r="G23" s="414" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H23" s="436" t="s">
+        <v>1060</v>
+      </c>
+      <c r="I23" s="436" t="s">
         <v>1061</v>
-      </c>
-      <c r="H23" s="436" t="s">
-        <v>1062</v>
-      </c>
-      <c r="I23" s="436" t="s">
-        <v>1063</v>
       </c>
       <c r="J23" s="436"/>
       <c r="K23" s="414"/>
@@ -16309,13 +16302,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="435" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C24" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D24" s="414" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="E24" s="414">
         <v>172.87</v>
@@ -16324,13 +16317,13 @@
         <v>1250</v>
       </c>
       <c r="G24" s="414" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="H24" s="436" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="I24" s="436" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="J24" s="436"/>
       <c r="K24" s="414"/>
@@ -16340,13 +16333,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="435" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C25" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D25" s="414" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="E25" s="414">
         <v>38.590000000000003</v>
@@ -16355,13 +16348,13 @@
         <v>3000</v>
       </c>
       <c r="G25" s="414" t="s">
+        <v>1068</v>
+      </c>
+      <c r="H25" s="436" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I25" s="436" t="s">
         <v>1070</v>
-      </c>
-      <c r="H25" s="436" t="s">
-        <v>1071</v>
-      </c>
-      <c r="I25" s="436" t="s">
-        <v>1072</v>
       </c>
       <c r="J25" s="436"/>
       <c r="K25" s="414"/>
@@ -16371,13 +16364,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="435" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="C26" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D26" s="414" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="E26" s="414">
         <v>65.5</v>
@@ -16389,10 +16382,10 @@
       <c r="H26" s="436"/>
       <c r="I26" s="436"/>
       <c r="J26" s="436" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="K26" s="414" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="45" x14ac:dyDescent="0.2">
@@ -16400,13 +16393,13 @@
         <v>19</v>
       </c>
       <c r="B27" s="435" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C27" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D27" s="414" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E27" s="414">
         <v>67</v>
@@ -16415,13 +16408,13 @@
         <v>687.5</v>
       </c>
       <c r="G27" s="414" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="H27" s="436" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="I27" s="436" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="J27" s="436"/>
       <c r="K27" s="414"/>
@@ -16431,13 +16424,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="435" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C28" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D28" s="414" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E28" s="414">
         <v>108.86</v>
@@ -16446,13 +16439,13 @@
         <v>375</v>
       </c>
       <c r="G28" s="414" t="s">
+        <v>1080</v>
+      </c>
+      <c r="H28" s="436" t="s">
+        <v>1081</v>
+      </c>
+      <c r="I28" s="436" t="s">
         <v>1082</v>
-      </c>
-      <c r="H28" s="436" t="s">
-        <v>1083</v>
-      </c>
-      <c r="I28" s="436" t="s">
-        <v>1084</v>
       </c>
       <c r="J28" s="436"/>
       <c r="K28" s="414"/>
@@ -16462,13 +16455,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="435" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="C29" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D29" s="414" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="E29" s="414">
         <v>155.19999999999999</v>
@@ -16480,10 +16473,10 @@
       <c r="H29" s="436"/>
       <c r="I29" s="436"/>
       <c r="J29" s="436" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="K29" s="414" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.2">
@@ -16491,13 +16484,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="435" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="C30" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D30" s="414" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="E30" s="414">
         <v>141.74</v>
@@ -16509,10 +16502,10 @@
         <v>38001006467</v>
       </c>
       <c r="H30" s="436" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="I30" s="436" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="J30" s="436"/>
       <c r="K30" s="414"/>
@@ -16522,13 +16515,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="435" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="C31" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D31" s="414" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="E31" s="414">
         <v>28.3</v>
@@ -16537,13 +16530,13 @@
         <v>500</v>
       </c>
       <c r="G31" s="414" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H31" s="436" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I31" s="436" t="s">
         <v>1092</v>
-      </c>
-      <c r="H31" s="436" t="s">
-        <v>1093</v>
-      </c>
-      <c r="I31" s="436" t="s">
-        <v>1094</v>
       </c>
       <c r="J31" s="436"/>
       <c r="K31" s="414"/>
@@ -16553,13 +16546,13 @@
         <v>24</v>
       </c>
       <c r="B32" s="435" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="C32" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D32" s="414" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E32" s="414">
         <v>170</v>
@@ -16568,13 +16561,13 @@
         <v>750</v>
       </c>
       <c r="G32" s="414" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H32" s="436" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I32" s="436" t="s">
         <v>1097</v>
-      </c>
-      <c r="H32" s="436" t="s">
-        <v>1098</v>
-      </c>
-      <c r="I32" s="436" t="s">
-        <v>1099</v>
       </c>
       <c r="J32" s="436"/>
       <c r="K32" s="414"/>
@@ -16584,13 +16577,13 @@
         <v>25</v>
       </c>
       <c r="B33" s="435" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="C33" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D33" s="414" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="E33" s="414">
         <v>14.62</v>
@@ -16599,13 +16592,13 @@
         <v>625</v>
       </c>
       <c r="G33" s="414" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="H33" s="436" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="I33" s="436" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="J33" s="436"/>
       <c r="K33" s="414"/>
@@ -16615,13 +16608,13 @@
         <v>26</v>
       </c>
       <c r="B34" s="435" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="C34" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D34" s="414" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="E34" s="414">
         <v>117</v>
@@ -16630,13 +16623,13 @@
         <v>625</v>
       </c>
       <c r="G34" s="414" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H34" s="436" t="s">
+        <v>1105</v>
+      </c>
+      <c r="I34" s="436" t="s">
         <v>1106</v>
-      </c>
-      <c r="H34" s="436" t="s">
-        <v>1107</v>
-      </c>
-      <c r="I34" s="436" t="s">
-        <v>1108</v>
       </c>
       <c r="J34" s="436"/>
       <c r="K34" s="414"/>
@@ -16646,28 +16639,28 @@
         <v>27</v>
       </c>
       <c r="B35" s="435" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C35" s="414" t="s">
+        <v>996</v>
+      </c>
+      <c r="D35" s="414" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E35" s="414" t="s">
         <v>1109</v>
-      </c>
-      <c r="C35" s="414" t="s">
-        <v>998</v>
-      </c>
-      <c r="D35" s="414" t="s">
-        <v>1110</v>
-      </c>
-      <c r="E35" s="414" t="s">
-        <v>1111</v>
       </c>
       <c r="F35" s="414">
         <v>800</v>
       </c>
       <c r="G35" s="414" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H35" s="436" t="s">
+        <v>1111</v>
+      </c>
+      <c r="I35" s="436" t="s">
         <v>1112</v>
-      </c>
-      <c r="H35" s="436" t="s">
-        <v>1113</v>
-      </c>
-      <c r="I35" s="436" t="s">
-        <v>1114</v>
       </c>
       <c r="J35" s="436"/>
       <c r="K35" s="414"/>
@@ -16677,26 +16670,26 @@
         <v>28</v>
       </c>
       <c r="B36" s="435" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C36" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D36" s="414" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="E36" s="414"/>
       <c r="F36" s="414">
         <v>3000</v>
       </c>
       <c r="G36" s="414" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="H36" s="436" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="I36" s="436" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="J36" s="436"/>
       <c r="K36" s="414"/>
@@ -16706,26 +16699,26 @@
         <v>29</v>
       </c>
       <c r="B37" s="435" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="C37" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D37" s="414" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="E37" s="414"/>
       <c r="F37" s="414">
         <v>200</v>
       </c>
       <c r="G37" s="414" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H37" s="436" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I37" s="436" t="s">
         <v>1121</v>
-      </c>
-      <c r="H37" s="436" t="s">
-        <v>1122</v>
-      </c>
-      <c r="I37" s="436" t="s">
-        <v>1123</v>
       </c>
       <c r="J37" s="436"/>
       <c r="K37" s="414"/>
@@ -16735,13 +16728,13 @@
         <v>30</v>
       </c>
       <c r="B38" s="435" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C38" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D38" s="414" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="E38" s="414">
         <v>22.5</v>
@@ -16750,13 +16743,13 @@
         <v>375</v>
       </c>
       <c r="G38" s="414" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H38" s="436" t="s">
+        <v>1125</v>
+      </c>
+      <c r="I38" s="436" t="s">
         <v>1126</v>
-      </c>
-      <c r="H38" s="436" t="s">
-        <v>1127</v>
-      </c>
-      <c r="I38" s="436" t="s">
-        <v>1128</v>
       </c>
       <c r="J38" s="436"/>
       <c r="K38" s="414"/>
@@ -16766,13 +16759,13 @@
         <v>31</v>
       </c>
       <c r="B39" s="435" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="C39" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D39" s="414" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="E39" s="414">
         <v>21.3</v>
@@ -16781,13 +16774,13 @@
         <v>437.5</v>
       </c>
       <c r="G39" s="414" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="H39" s="436" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="I39" s="436" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="J39" s="436"/>
       <c r="K39" s="414"/>
@@ -16797,13 +16790,13 @@
         <v>32</v>
       </c>
       <c r="B40" s="435" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="C40" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D40" s="414" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="E40" s="414">
         <v>46.42</v>
@@ -16815,10 +16808,10 @@
       <c r="H40" s="436"/>
       <c r="I40" s="436"/>
       <c r="J40" s="436" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="K40" s="414" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.2">
@@ -16826,13 +16819,13 @@
         <v>33</v>
       </c>
       <c r="B41" s="435" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="C41" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D41" s="414" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="E41" s="414">
         <v>48</v>
@@ -16844,10 +16837,10 @@
       <c r="H41" s="436"/>
       <c r="I41" s="436"/>
       <c r="J41" s="436" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="K41" s="414" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.2">
@@ -16855,13 +16848,13 @@
         <v>34</v>
       </c>
       <c r="B42" s="435" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="C42" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D42" s="414" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="E42" s="414">
         <v>67.03</v>
@@ -16876,7 +16869,7 @@
         <v>235447343</v>
       </c>
       <c r="K42" s="414" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="45" x14ac:dyDescent="0.2">
@@ -16884,13 +16877,13 @@
         <v>35</v>
       </c>
       <c r="B43" s="435" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="C43" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D43" s="414" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="E43" s="414">
         <v>35</v>
@@ -16899,13 +16892,13 @@
         <v>450</v>
       </c>
       <c r="G43" s="414" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H43" s="436" t="s">
+        <v>1144</v>
+      </c>
+      <c r="I43" s="436" t="s">
         <v>1145</v>
-      </c>
-      <c r="H43" s="436" t="s">
-        <v>1146</v>
-      </c>
-      <c r="I43" s="436" t="s">
-        <v>1147</v>
       </c>
       <c r="J43" s="436"/>
       <c r="K43" s="414"/>
@@ -16915,13 +16908,13 @@
         <v>36</v>
       </c>
       <c r="B44" s="435" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="C44" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D44" s="414" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="E44" s="414">
         <v>76</v>
@@ -16933,10 +16926,10 @@
       <c r="H44" s="436"/>
       <c r="I44" s="436"/>
       <c r="J44" s="436" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="K44" s="414" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="30" x14ac:dyDescent="0.2">
@@ -16944,13 +16937,13 @@
         <v>37</v>
       </c>
       <c r="B45" s="435" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C45" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D45" s="414" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="E45" s="414">
         <v>231.37</v>
@@ -16962,10 +16955,10 @@
         <v>49001000182</v>
       </c>
       <c r="H45" s="436" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="I45" s="436" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="J45" s="436"/>
       <c r="K45" s="414"/>
@@ -16975,13 +16968,13 @@
         <v>38</v>
       </c>
       <c r="B46" s="435" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C46" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D46" s="414" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="E46" s="414">
         <v>93</v>
@@ -16990,13 +16983,13 @@
         <v>312.5</v>
       </c>
       <c r="G46" s="414" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="H46" s="436" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="I46" s="436" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="J46" s="436"/>
       <c r="K46" s="414"/>
@@ -17006,13 +16999,13 @@
         <v>39</v>
       </c>
       <c r="B47" s="435" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="C47" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D47" s="414" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E47" s="414">
         <v>68.400000000000006</v>
@@ -17021,13 +17014,13 @@
         <v>375</v>
       </c>
       <c r="G47" s="414" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H47" s="436" t="s">
+        <v>1161</v>
+      </c>
+      <c r="I47" s="436" t="s">
         <v>1162</v>
-      </c>
-      <c r="H47" s="436" t="s">
-        <v>1163</v>
-      </c>
-      <c r="I47" s="436" t="s">
-        <v>1164</v>
       </c>
       <c r="J47" s="436"/>
       <c r="K47" s="414"/>
@@ -17037,13 +17030,13 @@
         <v>40</v>
       </c>
       <c r="B48" s="435" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="C48" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D48" s="414" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="E48" s="414">
         <v>96</v>
@@ -17052,13 +17045,13 @@
         <v>200</v>
       </c>
       <c r="G48" s="414" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="H48" s="436" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="I48" s="436" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="J48" s="436"/>
       <c r="K48" s="414"/>
@@ -17068,13 +17061,13 @@
         <v>41</v>
       </c>
       <c r="B49" s="435" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="C49" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D49" s="414" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="E49" s="414">
         <v>100</v>
@@ -17083,13 +17076,13 @@
         <v>1000</v>
       </c>
       <c r="G49" s="414" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H49" s="436" t="s">
+        <v>1169</v>
+      </c>
+      <c r="I49" s="436" t="s">
         <v>1170</v>
-      </c>
-      <c r="H49" s="436" t="s">
-        <v>1171</v>
-      </c>
-      <c r="I49" s="436" t="s">
-        <v>1172</v>
       </c>
       <c r="J49" s="436"/>
       <c r="K49" s="414"/>
@@ -17099,13 +17092,13 @@
         <v>42</v>
       </c>
       <c r="B50" s="435" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="C50" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D50" s="414" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="E50" s="414">
         <v>48.8</v>
@@ -17114,13 +17107,13 @@
         <v>665</v>
       </c>
       <c r="G50" s="414" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H50" s="436" t="s">
+        <v>1174</v>
+      </c>
+      <c r="I50" s="436" t="s">
         <v>1175</v>
-      </c>
-      <c r="H50" s="436" t="s">
-        <v>1176</v>
-      </c>
-      <c r="I50" s="436" t="s">
-        <v>1177</v>
       </c>
       <c r="J50" s="436"/>
       <c r="K50" s="414"/>
@@ -17130,13 +17123,13 @@
         <v>43</v>
       </c>
       <c r="B51" s="435" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="C51" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D51" s="414" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="E51" s="414">
         <v>212.5</v>
@@ -17145,13 +17138,13 @@
         <v>250</v>
       </c>
       <c r="G51" s="414" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H51" s="436" t="s">
+        <v>1179</v>
+      </c>
+      <c r="I51" s="436" t="s">
         <v>1180</v>
-      </c>
-      <c r="H51" s="436" t="s">
-        <v>1181</v>
-      </c>
-      <c r="I51" s="436" t="s">
-        <v>1182</v>
       </c>
       <c r="J51" s="436"/>
       <c r="K51" s="414"/>
@@ -17161,13 +17154,13 @@
         <v>44</v>
       </c>
       <c r="B52" s="435" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C52" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D52" s="414" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="E52" s="414">
         <v>242.2</v>
@@ -17179,10 +17172,10 @@
         <v>5001001777</v>
       </c>
       <c r="H52" s="436" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="I52" s="436" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="J52" s="436"/>
       <c r="K52" s="414"/>
@@ -17192,13 +17185,13 @@
         <v>45</v>
       </c>
       <c r="B53" s="435" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="C53" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D53" s="414" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E53" s="414">
         <v>121</v>
@@ -17207,13 +17200,13 @@
         <v>750</v>
       </c>
       <c r="G53" s="414" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="H53" s="436" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="I53" s="436" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="J53" s="436"/>
       <c r="K53" s="414"/>
@@ -17223,13 +17216,13 @@
         <v>46</v>
       </c>
       <c r="B54" s="435" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="C54" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D54" s="414" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="E54" s="414">
         <v>87</v>
@@ -17238,13 +17231,13 @@
         <v>650</v>
       </c>
       <c r="G54" s="414" t="s">
+        <v>1191</v>
+      </c>
+      <c r="H54" s="436" t="s">
+        <v>1192</v>
+      </c>
+      <c r="I54" s="436" t="s">
         <v>1193</v>
-      </c>
-      <c r="H54" s="436" t="s">
-        <v>1194</v>
-      </c>
-      <c r="I54" s="436" t="s">
-        <v>1195</v>
       </c>
       <c r="J54" s="436"/>
       <c r="K54" s="414"/>
@@ -17254,13 +17247,13 @@
         <v>47</v>
       </c>
       <c r="B55" s="435" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="C55" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D55" s="414" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="E55" s="414">
         <v>156</v>
@@ -17272,10 +17265,10 @@
       <c r="H55" s="436"/>
       <c r="I55" s="436"/>
       <c r="J55" s="436" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="K55" s="414" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="30" x14ac:dyDescent="0.2">
@@ -17283,13 +17276,13 @@
         <v>48</v>
       </c>
       <c r="B56" s="435" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="C56" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D56" s="414" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="E56" s="414">
         <v>277</v>
@@ -17298,13 +17291,13 @@
         <v>375</v>
       </c>
       <c r="G56" s="414" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="H56" s="436" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="I56" s="436" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="J56" s="436"/>
       <c r="K56" s="414"/>
@@ -17314,13 +17307,13 @@
         <v>49</v>
       </c>
       <c r="B57" s="435" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C57" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D57" s="414" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="E57" s="414">
         <v>48</v>
@@ -17332,10 +17325,10 @@
       <c r="H57" s="436"/>
       <c r="I57" s="436"/>
       <c r="J57" s="436" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="K57" s="414" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="30" x14ac:dyDescent="0.2">
@@ -17343,13 +17336,13 @@
         <v>50</v>
       </c>
       <c r="B58" s="435" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="C58" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D58" s="414" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="E58" s="414">
         <v>45</v>
@@ -17358,13 +17351,13 @@
         <v>500</v>
       </c>
       <c r="G58" s="414" t="s">
+        <v>1207</v>
+      </c>
+      <c r="H58" s="436" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I58" s="436" t="s">
         <v>1209</v>
-      </c>
-      <c r="H58" s="436" t="s">
-        <v>1210</v>
-      </c>
-      <c r="I58" s="436" t="s">
-        <v>1211</v>
       </c>
       <c r="J58" s="436"/>
       <c r="K58" s="414"/>
@@ -17374,13 +17367,13 @@
         <v>51</v>
       </c>
       <c r="B59" s="435" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C59" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D59" s="414" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="E59" s="414">
         <v>137.43</v>
@@ -17389,13 +17382,13 @@
         <v>1250</v>
       </c>
       <c r="G59" s="414" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="H59" s="436" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="I59" s="436" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="J59" s="436"/>
       <c r="K59" s="414"/>
@@ -17405,13 +17398,13 @@
         <v>52</v>
       </c>
       <c r="B60" s="435" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="C60" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D60" s="414" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="E60" s="414">
         <v>66.56</v>
@@ -17420,13 +17413,13 @@
         <v>500</v>
       </c>
       <c r="G60" s="414" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="H60" s="436" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="I60" s="436" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="J60" s="436"/>
       <c r="K60" s="414"/>
@@ -17436,13 +17429,13 @@
         <v>53</v>
       </c>
       <c r="B61" s="435" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="C61" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D61" s="414" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="E61" s="414">
         <v>92.25</v>
@@ -17451,13 +17444,13 @@
         <v>250</v>
       </c>
       <c r="G61" s="414" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H61" s="436" t="s">
+        <v>1221</v>
+      </c>
+      <c r="I61" s="436" t="s">
         <v>1222</v>
-      </c>
-      <c r="H61" s="436" t="s">
-        <v>1223</v>
-      </c>
-      <c r="I61" s="436" t="s">
-        <v>1224</v>
       </c>
       <c r="J61" s="436"/>
       <c r="K61" s="414"/>
@@ -17467,13 +17460,13 @@
         <v>54</v>
       </c>
       <c r="B62" s="435" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C62" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D62" s="414" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E62" s="414">
         <v>72</v>
@@ -17482,13 +17475,13 @@
         <v>375</v>
       </c>
       <c r="G62" s="414" t="s">
+        <v>1225</v>
+      </c>
+      <c r="H62" s="436" t="s">
+        <v>1226</v>
+      </c>
+      <c r="I62" s="436" t="s">
         <v>1227</v>
-      </c>
-      <c r="H62" s="436" t="s">
-        <v>1228</v>
-      </c>
-      <c r="I62" s="436" t="s">
-        <v>1229</v>
       </c>
       <c r="J62" s="436"/>
       <c r="K62" s="414"/>
@@ -17498,13 +17491,13 @@
         <v>55</v>
       </c>
       <c r="B63" s="435" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="C63" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D63" s="414" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="E63" s="414">
         <v>446</v>
@@ -17513,13 +17506,13 @@
         <v>500</v>
       </c>
       <c r="G63" s="414" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H63" s="436" t="s">
+        <v>1231</v>
+      </c>
+      <c r="I63" s="436" t="s">
         <v>1232</v>
-      </c>
-      <c r="H63" s="436" t="s">
-        <v>1233</v>
-      </c>
-      <c r="I63" s="436" t="s">
-        <v>1234</v>
       </c>
       <c r="J63" s="436"/>
       <c r="K63" s="414"/>
@@ -17529,13 +17522,13 @@
         <v>56</v>
       </c>
       <c r="B64" s="435" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C64" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D64" s="414" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="E64" s="414">
         <v>128.19999999999999</v>
@@ -17547,10 +17540,10 @@
       <c r="H64" s="436"/>
       <c r="I64" s="436"/>
       <c r="J64" s="436" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="K64" s="414" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="30" x14ac:dyDescent="0.2">
@@ -17558,13 +17551,13 @@
         <v>57</v>
       </c>
       <c r="B65" s="435" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="C65" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D65" s="414" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="E65" s="414">
         <v>43.7</v>
@@ -17573,13 +17566,13 @@
         <v>375</v>
       </c>
       <c r="G65" s="414" t="s">
+        <v>1239</v>
+      </c>
+      <c r="H65" s="436" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I65" s="436" t="s">
         <v>1241</v>
-      </c>
-      <c r="H65" s="436" t="s">
-        <v>1242</v>
-      </c>
-      <c r="I65" s="436" t="s">
-        <v>1243</v>
       </c>
       <c r="J65" s="436"/>
       <c r="K65" s="414"/>
@@ -17589,26 +17582,26 @@
         <v>58</v>
       </c>
       <c r="B66" s="435" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="C66" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D66" s="414" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="E66" s="414"/>
       <c r="F66" s="414">
         <v>562.5</v>
       </c>
       <c r="G66" s="414" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="H66" s="436" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="I66" s="436" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="J66" s="436"/>
       <c r="K66" s="414"/>
@@ -17618,13 +17611,13 @@
         <v>59</v>
       </c>
       <c r="B67" s="435" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="C67" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D67" s="414" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="E67" s="414">
         <v>66</v>
@@ -17633,13 +17626,13 @@
         <v>700</v>
       </c>
       <c r="G67" s="414" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="H67" s="436" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="I67" s="436" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="J67" s="436"/>
       <c r="K67" s="414"/>
@@ -17649,13 +17642,13 @@
         <v>60</v>
       </c>
       <c r="B68" s="435" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="C68" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D68" s="414" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="E68" s="414">
         <v>187</v>
@@ -17667,10 +17660,10 @@
       <c r="H68" s="436"/>
       <c r="I68" s="436"/>
       <c r="J68" s="436" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="K68" s="414" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="45" x14ac:dyDescent="0.2">
@@ -17678,13 +17671,13 @@
         <v>61</v>
       </c>
       <c r="B69" s="414" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="C69" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D69" s="414" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="E69" s="414">
         <v>165.5</v>
@@ -17696,10 +17689,10 @@
       <c r="H69" s="436"/>
       <c r="I69" s="436"/>
       <c r="J69" s="436" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="K69" s="414" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.2">
@@ -17707,13 +17700,13 @@
         <v>62</v>
       </c>
       <c r="B70" s="414" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C70" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D70" s="414" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="E70" s="414">
         <v>80</v>
@@ -17722,13 +17715,13 @@
         <v>1000</v>
       </c>
       <c r="G70" s="414" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="H70" s="436" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="I70" s="436" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="J70" s="436"/>
       <c r="K70" s="414"/>
@@ -17738,13 +17731,13 @@
         <v>63</v>
       </c>
       <c r="B71" s="414" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="C71" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D71" s="414" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="E71" s="414">
         <v>86.7</v>
@@ -17753,13 +17746,13 @@
         <v>2450</v>
       </c>
       <c r="G71" s="414" t="s">
+        <v>1263</v>
+      </c>
+      <c r="H71" s="436" t="s">
+        <v>1264</v>
+      </c>
+      <c r="I71" s="436" t="s">
         <v>1265</v>
-      </c>
-      <c r="H71" s="436" t="s">
-        <v>1266</v>
-      </c>
-      <c r="I71" s="436" t="s">
-        <v>1267</v>
       </c>
       <c r="J71" s="436"/>
       <c r="K71" s="414"/>
@@ -17769,13 +17762,13 @@
         <v>64</v>
       </c>
       <c r="B72" s="414" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="C72" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D72" s="414" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="E72" s="414">
         <v>101.18</v>
@@ -17784,13 +17777,13 @@
         <v>1875</v>
       </c>
       <c r="G72" s="414" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="H72" s="436" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="I72" s="436" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="J72" s="436"/>
       <c r="K72" s="414"/>
@@ -17800,13 +17793,13 @@
         <v>65</v>
       </c>
       <c r="B73" s="414" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C73" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D73" s="414" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="E73" s="414">
         <v>81</v>
@@ -17818,10 +17811,10 @@
       <c r="H73" s="436"/>
       <c r="I73" s="436"/>
       <c r="J73" s="436" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="K73" s="414" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.2">
@@ -17829,13 +17822,13 @@
         <v>66</v>
       </c>
       <c r="B74" s="414" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="C74" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D74" s="414" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="E74" s="414">
         <v>123.97</v>
@@ -17844,13 +17837,13 @@
         <v>2400</v>
       </c>
       <c r="G74" s="414" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="H74" s="436" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="I74" s="436" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="J74" s="436"/>
       <c r="K74" s="414"/>
@@ -17860,13 +17853,13 @@
         <v>67</v>
       </c>
       <c r="B75" s="414" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="C75" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D75" s="414" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="E75" s="414">
         <v>70</v>
@@ -17875,13 +17868,13 @@
         <v>562.5</v>
       </c>
       <c r="G75" s="414" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="H75" s="436" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="I75" s="436" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="J75" s="436"/>
       <c r="K75" s="414"/>
@@ -17891,13 +17884,13 @@
         <v>68</v>
       </c>
       <c r="B76" s="414" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C76" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D76" s="414" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="E76" s="414">
         <v>28.6</v>
@@ -17906,13 +17899,13 @@
         <v>437.5</v>
       </c>
       <c r="G76" s="414" t="s">
+        <v>1283</v>
+      </c>
+      <c r="H76" s="436" t="s">
+        <v>1284</v>
+      </c>
+      <c r="I76" s="436" t="s">
         <v>1285</v>
-      </c>
-      <c r="H76" s="436" t="s">
-        <v>1286</v>
-      </c>
-      <c r="I76" s="436" t="s">
-        <v>1287</v>
       </c>
       <c r="J76" s="436"/>
       <c r="K76" s="414"/>
@@ -17922,13 +17915,13 @@
         <v>69</v>
       </c>
       <c r="B77" s="414" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="C77" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D77" s="414" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="E77" s="414">
         <v>108</v>
@@ -17937,13 +17930,13 @@
         <v>800</v>
       </c>
       <c r="G77" s="414" t="s">
+        <v>1288</v>
+      </c>
+      <c r="H77" s="436" t="s">
+        <v>1289</v>
+      </c>
+      <c r="I77" s="436" t="s">
         <v>1290</v>
-      </c>
-      <c r="H77" s="436" t="s">
-        <v>1291</v>
-      </c>
-      <c r="I77" s="436" t="s">
-        <v>1292</v>
       </c>
       <c r="J77" s="436"/>
       <c r="K77" s="414"/>
@@ -17953,13 +17946,13 @@
         <v>70</v>
       </c>
       <c r="B78" s="414" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="C78" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D78" s="414" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="E78" s="414"/>
       <c r="F78" s="414">
@@ -17969,10 +17962,10 @@
       <c r="H78" s="436"/>
       <c r="I78" s="436"/>
       <c r="J78" s="436" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="K78" s="414" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.2">
@@ -17980,13 +17973,13 @@
         <v>71</v>
       </c>
       <c r="B79" s="414" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="C79" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D79" s="414" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="E79" s="414">
         <v>50</v>
@@ -17995,13 +17988,13 @@
         <v>1000</v>
       </c>
       <c r="G79" s="414" t="s">
+        <v>1297</v>
+      </c>
+      <c r="H79" s="436" t="s">
+        <v>1298</v>
+      </c>
+      <c r="I79" s="436" t="s">
         <v>1299</v>
-      </c>
-      <c r="H79" s="436" t="s">
-        <v>1300</v>
-      </c>
-      <c r="I79" s="436" t="s">
-        <v>1301</v>
       </c>
       <c r="J79" s="436"/>
       <c r="K79" s="414"/>
@@ -18011,13 +18004,13 @@
         <v>72</v>
       </c>
       <c r="B80" s="414" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="C80" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D80" s="414" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="E80" s="414">
         <v>70</v>
@@ -18026,13 +18019,13 @@
         <v>625</v>
       </c>
       <c r="G80" s="414" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H80" s="436" t="s">
+        <v>1302</v>
+      </c>
+      <c r="I80" s="436" t="s">
         <v>1303</v>
-      </c>
-      <c r="H80" s="436" t="s">
-        <v>1304</v>
-      </c>
-      <c r="I80" s="436" t="s">
-        <v>1305</v>
       </c>
       <c r="J80" s="436"/>
       <c r="K80" s="414"/>
@@ -18042,13 +18035,13 @@
         <v>73</v>
       </c>
       <c r="B81" s="414" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="C81" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D81" s="414" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="E81" s="414">
         <v>118.1</v>
@@ -18057,13 +18050,13 @@
         <v>625</v>
       </c>
       <c r="G81" s="414" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="H81" s="436" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="I81" s="436" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="J81" s="436"/>
       <c r="K81" s="414"/>
@@ -18073,13 +18066,13 @@
         <v>74</v>
       </c>
       <c r="B82" s="414" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="C82" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D82" s="414" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="E82" s="414">
         <v>69.239999999999995</v>
@@ -18091,10 +18084,10 @@
         <v>36001000355</v>
       </c>
       <c r="H82" s="436" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="I82" s="436" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="J82" s="436"/>
       <c r="K82" s="414"/>
@@ -18104,13 +18097,13 @@
         <v>75</v>
       </c>
       <c r="B83" s="414" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="C83" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D83" s="414" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="E83" s="414">
         <v>132</v>
@@ -18119,13 +18112,13 @@
         <v>187.5</v>
       </c>
       <c r="G83" s="414" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="H83" s="436" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="I83" s="436" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="J83" s="436"/>
       <c r="K83" s="414"/>
@@ -18135,13 +18128,13 @@
         <v>76</v>
       </c>
       <c r="B84" s="414" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C84" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D84" s="414" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="E84" s="414">
         <v>233</v>
@@ -18150,13 +18143,13 @@
         <v>750</v>
       </c>
       <c r="G84" s="439" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H84" s="436" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="I84" s="436" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="J84" s="436"/>
       <c r="K84" s="414"/>
@@ -18166,13 +18159,13 @@
         <v>77</v>
       </c>
       <c r="B85" s="414" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="C85" s="414" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D85" s="414" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="E85" s="414">
         <v>50</v>
@@ -18184,10 +18177,10 @@
         <v>12001080035</v>
       </c>
       <c r="H85" s="436" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="I85" s="436" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="J85" s="436"/>
       <c r="K85" s="414"/>
@@ -18197,28 +18190,28 @@
         <v>78</v>
       </c>
       <c r="B86" s="414" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C86" s="414" t="s">
+        <v>996</v>
+      </c>
+      <c r="D86" s="414" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E86" s="414" t="s">
         <v>1022</v>
-      </c>
-      <c r="C86" s="414" t="s">
-        <v>998</v>
-      </c>
-      <c r="D86" s="414" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E86" s="414" t="s">
-        <v>1024</v>
       </c>
       <c r="F86" s="414">
         <v>1000</v>
       </c>
       <c r="G86" s="414" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="H86" s="436" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="I86" s="436" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="J86" s="436"/>
       <c r="K86" s="414"/>
@@ -18407,7 +18400,7 @@
       <c r="I2" s="129"/>
       <c r="J2" s="129"/>
       <c r="K2" s="474" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L2" s="474"/>
     </row>
@@ -18445,7 +18438,7 @@
     </row>
     <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="350" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B5" s="209"/>
       <c r="C5" s="75"/>
@@ -18554,19 +18547,19 @@
         <v>1</v>
       </c>
       <c r="B9" s="413" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C9" s="414" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D9" s="414" t="s">
         <v>1337</v>
-      </c>
-      <c r="C9" s="414" t="s">
-        <v>1338</v>
-      </c>
-      <c r="D9" s="414" t="s">
-        <v>1339</v>
       </c>
       <c r="E9" s="414">
         <v>2002</v>
       </c>
       <c r="F9" s="414" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="G9" s="414">
         <v>625</v>
@@ -18575,10 +18568,10 @@
       <c r="I9" s="436"/>
       <c r="J9" s="436"/>
       <c r="K9" s="436" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="L9" s="414" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="10" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -18780,7 +18773,7 @@
       <c r="G2" s="129"/>
       <c r="H2" s="135"/>
       <c r="I2" s="264" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="3" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -18811,7 +18804,7 @@
     </row>
     <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="350" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B5" s="75"/>
       <c r="C5" s="75"/>
@@ -19260,7 +19253,7 @@
       </c>
       <c r="B2" s="71"/>
       <c r="C2" s="474" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D2" s="474"/>
       <c r="E2" s="102"/>
@@ -19283,7 +19276,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="350" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -19785,7 +19778,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="350" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B5" s="209"/>
       <c r="C5" s="209"/>
@@ -19856,16 +19849,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="353" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C9" s="354" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D9" s="355">
         <v>242005888</v>
       </c>
       <c r="E9" s="356" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F9" s="357"/>
       <c r="G9" s="357"/>
@@ -19880,16 +19873,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="353" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C10" s="360" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D10" s="355">
         <v>211350928</v>
       </c>
       <c r="E10" s="361" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F10" s="357"/>
       <c r="G10" s="357"/>
@@ -19904,16 +19897,16 @@
         <v>3</v>
       </c>
       <c r="B11" s="354" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C11" s="354" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D11" s="355">
         <v>404385269</v>
       </c>
       <c r="E11" s="356" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F11" s="357"/>
       <c r="G11" s="357"/>
@@ -19928,16 +19921,16 @@
         <v>4</v>
       </c>
       <c r="B12" s="354" t="s">
+        <v>476</v>
+      </c>
+      <c r="C12" s="354" t="s">
+        <v>477</v>
+      </c>
+      <c r="D12" s="362" t="s">
         <v>478</v>
       </c>
-      <c r="C12" s="354" t="s">
+      <c r="E12" s="356" t="s">
         <v>479</v>
-      </c>
-      <c r="D12" s="362" t="s">
-        <v>480</v>
-      </c>
-      <c r="E12" s="356" t="s">
-        <v>481</v>
       </c>
       <c r="F12" s="357"/>
       <c r="G12" s="357"/>
@@ -19952,16 +19945,16 @@
         <v>6</v>
       </c>
       <c r="B13" s="353" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C13" s="360" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D13" s="355">
         <v>405025530</v>
       </c>
       <c r="E13" s="353" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F13" s="357"/>
       <c r="G13" s="357"/>
@@ -19976,16 +19969,16 @@
         <v>7</v>
       </c>
       <c r="B14" s="363" t="s">
+        <v>483</v>
+      </c>
+      <c r="C14" s="354" t="s">
+        <v>484</v>
+      </c>
+      <c r="D14" s="364" t="s">
         <v>485</v>
       </c>
-      <c r="C14" s="354" t="s">
+      <c r="E14" s="356" t="s">
         <v>486</v>
-      </c>
-      <c r="D14" s="364" t="s">
-        <v>487</v>
-      </c>
-      <c r="E14" s="356" t="s">
-        <v>488</v>
       </c>
       <c r="F14" s="357"/>
       <c r="G14" s="357"/>
@@ -20206,7 +20199,7 @@
     </row>
     <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="350" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B5" s="186"/>
       <c r="C5" s="186"/>
@@ -24339,7 +24332,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -24370,7 +24363,7 @@
       </c>
       <c r="B2" s="227"/>
       <c r="C2" s="474" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D2" s="474"/>
       <c r="E2" s="107"/>
@@ -24395,7 +24388,7 @@
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="350" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B5" s="229"/>
       <c r="C5" s="57"/>
@@ -24819,10 +24812,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L88"/>
+  <dimension ref="A1:L87"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A64" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -24852,7 +24845,7 @@
       </c>
       <c r="B2" s="108"/>
       <c r="C2" s="474" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D2" s="474"/>
       <c r="E2" s="139"/>
@@ -24877,7 +24870,7 @@
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="350" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B5" s="105"/>
       <c r="C5" s="57"/>
@@ -24921,11 +24914,11 @@
         <v>57</v>
       </c>
       <c r="C9" s="77">
-        <f>SUM(C10,C13,C53,C56,C57,C58,C75)</f>
+        <f>SUM(C10,C13,C52,C55,C56,C57,C74)</f>
         <v>164556.47999999998</v>
       </c>
       <c r="D9" s="77">
-        <f>SUM(D10,D13,D53,D56,D57,D58,D64,D71,D72)</f>
+        <f>SUM(D10,D13,D52,D55,D56,D57,D63,D70,D71)</f>
         <v>164556.47999999998</v>
       </c>
       <c r="E9" s="141"/>
@@ -24981,11 +24974,11 @@
         <v>60</v>
       </c>
       <c r="C13" s="79">
-        <f>SUM(C14,C17,C29:C32,C35,C36,C43,C44,C45,C46,C47,C51,C52)</f>
+        <f>SUM(C14,C17,C29:C32,C35,C36,C42,C43,C44,C45,C46,C50,C51)</f>
         <v>105620.47</v>
       </c>
       <c r="D13" s="79">
-        <f>SUM(D14,D17,D29:D32,D35,D36,D43,D44,D45,D46,D47,D51,D52)</f>
+        <f>SUM(D14,D17,D29:D32,D35,D36,D42,D43,D44,D45,D46,D50,D51)</f>
         <v>105620.47</v>
       </c>
       <c r="E13" s="139"/>
@@ -25316,11 +25309,11 @@
         <v>339</v>
       </c>
       <c r="C36" s="78">
-        <f>SUM(C37:C42)</f>
+        <f>SUM(C37:C41)</f>
         <v>11896.76</v>
       </c>
       <c r="D36" s="78">
-        <f>SUM(D37:D42)</f>
+        <f>SUM(D37:D41)</f>
         <v>11896.76</v>
       </c>
       <c r="E36" s="139"/>
@@ -25382,201 +25375,201 @@
         <v>346</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>434</v>
-      </c>
-      <c r="C41" s="31"/>
-      <c r="D41" s="32"/>
+        <v>342</v>
+      </c>
+      <c r="C41" s="32">
+        <v>2183.6799999999998</v>
+      </c>
+      <c r="D41" s="32">
+        <v>2183.6799999999998</v>
+      </c>
       <c r="E41" s="139"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="17" t="s">
-        <v>435</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>342</v>
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="A42" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="C42" s="32">
-        <v>2183.6799999999998</v>
+        <v>402</v>
       </c>
       <c r="D42" s="32">
-        <v>2183.6799999999998</v>
+        <v>402</v>
       </c>
       <c r="E42" s="139"/>
     </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C43" s="32">
-        <v>402</v>
+        <v>638</v>
       </c>
       <c r="D43" s="32">
-        <v>402</v>
+        <v>638</v>
       </c>
       <c r="E43" s="139"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C44" s="32">
-        <v>638</v>
+        <v>8500</v>
       </c>
       <c r="D44" s="32">
-        <v>638</v>
+        <v>8500</v>
       </c>
       <c r="E44" s="139"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C45" s="32">
-        <v>8500</v>
+        <v>345</v>
       </c>
       <c r="D45" s="32">
-        <v>8500</v>
+        <v>345</v>
       </c>
       <c r="E45" s="139"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" s="32">
-        <v>345</v>
-      </c>
-      <c r="D46" s="32">
-        <v>345</v>
+        <v>285</v>
+      </c>
+      <c r="C46" s="78">
+        <f>SUM(C47:C49)</f>
+        <v>56678.49</v>
+      </c>
+      <c r="D46" s="78">
+        <f>SUM(D47:D49)</f>
+        <v>56678.49</v>
       </c>
       <c r="E46" s="139"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="C47" s="78">
-        <f>SUM(C48:C50)</f>
+      <c r="A47" s="91" t="s">
+        <v>351</v>
+      </c>
+      <c r="B47" s="91" t="s">
+        <v>354</v>
+      </c>
+      <c r="C47" s="32">
         <v>56678.49</v>
       </c>
-      <c r="D47" s="78">
-        <f>SUM(D48:D50)</f>
+      <c r="D47" s="32">
         <v>56678.49</v>
       </c>
       <c r="E47" s="139"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="91" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B48" s="91" t="s">
-        <v>354</v>
-      </c>
-      <c r="C48" s="32">
-        <v>56678.49</v>
-      </c>
-      <c r="D48" s="32">
-        <v>56678.49</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="C48" s="31"/>
+      <c r="D48" s="32"/>
       <c r="E48" s="139"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="91" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B49" s="91" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C49" s="31"/>
       <c r="D49" s="32"/>
       <c r="E49" s="139"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="91" t="s">
-        <v>355</v>
-      </c>
-      <c r="B50" s="91" t="s">
-        <v>356</v>
+    <row r="50" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="C50" s="31"/>
       <c r="D50" s="32"/>
       <c r="E50" s="139"/>
     </row>
-    <row r="51" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51" s="31"/>
-      <c r="D51" s="32"/>
+        <v>6</v>
+      </c>
+      <c r="C51" s="32">
+        <v>3258.3</v>
+      </c>
+      <c r="D51" s="32">
+        <v>3258.3</v>
+      </c>
       <c r="E51" s="139"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="32">
-        <v>3258.3</v>
-      </c>
-      <c r="D52" s="32">
-        <v>3258.3</v>
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+      <c r="A52" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="B52" s="82" t="s">
+        <v>383</v>
+      </c>
+      <c r="C52" s="79">
+        <f>SUM(C53:C54)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="79">
+        <f>SUM(D53:D54)</f>
+        <v>0</v>
       </c>
       <c r="E52" s="139"/>
     </row>
     <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="A53" s="14">
-        <v>1.3</v>
-      </c>
-      <c r="B53" s="82" t="s">
-        <v>383</v>
-      </c>
-      <c r="C53" s="79">
-        <f>SUM(C54:C55)</f>
-        <v>0</v>
-      </c>
-      <c r="D53" s="79">
-        <f>SUM(D54:D55)</f>
-        <v>0</v>
-      </c>
+      <c r="A53" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="31"/>
+      <c r="D53" s="32"/>
       <c r="E53" s="139"/>
     </row>
-    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C54" s="31"/>
       <c r="D54" s="32"/>
       <c r="E54" s="139"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B55" s="16" t="s">
-        <v>47</v>
+      <c r="A55" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>385</v>
       </c>
       <c r="C55" s="31"/>
       <c r="D55" s="32"/>
@@ -25584,275 +25577,272 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="14">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="C56" s="31"/>
-      <c r="D56" s="32"/>
+        <v>7</v>
+      </c>
+      <c r="C56" s="35"/>
+      <c r="D56" s="38"/>
       <c r="E56" s="139"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="35"/>
-      <c r="D57" s="38"/>
+        <v>1.6</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="79">
+        <f>SUM(C58:C62)</f>
+        <v>194.81000000001222</v>
+      </c>
+      <c r="D57" s="79">
+        <f>SUM(D58:D62)</f>
+        <v>194.81000000001222</v>
+      </c>
       <c r="E57" s="139"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="14">
-        <v>1.6</v>
-      </c>
-      <c r="B58" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="79">
-        <f>SUM(C59:C63)</f>
-        <v>194.81000000001222</v>
-      </c>
-      <c r="D58" s="79">
-        <f>SUM(D59:D63)</f>
-        <v>194.81000000001222</v>
-      </c>
+      <c r="A58" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="B58" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" s="35"/>
+      <c r="D58" s="38"/>
       <c r="E58" s="139"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A59" s="16" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B59" s="44" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C59" s="35"/>
       <c r="D59" s="38"/>
       <c r="E59" s="139"/>
     </row>
-    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="16" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B60" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="C60" s="35"/>
+        <v>53</v>
+      </c>
+      <c r="C60" s="38"/>
       <c r="D60" s="38"/>
       <c r="E60" s="139"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="16" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B61" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="C61" s="38"/>
+        <v>27</v>
+      </c>
+      <c r="C61" s="35"/>
       <c r="D61" s="38"/>
       <c r="E61" s="139"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A62" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="B62" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="C62" s="35"/>
-      <c r="D62" s="38"/>
+        <v>322</v>
+      </c>
+      <c r="B62" s="203" t="s">
+        <v>323</v>
+      </c>
+      <c r="C62" s="204">
+        <v>194.81000000001222</v>
+      </c>
+      <c r="D62" s="204">
+        <v>194.81000000001222</v>
+      </c>
       <c r="E62" s="139"/>
-    </row>
-    <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="B63" s="203" t="s">
-        <v>323</v>
-      </c>
-      <c r="C63" s="204">
-        <v>194.81000000001222</v>
-      </c>
-      <c r="D63" s="204">
-        <v>194.81000000001222</v>
+      <c r="G62" s="460"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="13">
+        <v>2</v>
+      </c>
+      <c r="B63" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63" s="255"/>
+      <c r="D63" s="112">
+        <f>SUM(D64:D69)</f>
+        <v>0</v>
       </c>
       <c r="E63" s="139"/>
-      <c r="G63" s="460"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="13">
-        <v>2</v>
-      </c>
-      <c r="B64" s="45" t="s">
-        <v>95</v>
+      <c r="A64" s="15">
+        <v>2.1</v>
+      </c>
+      <c r="B64" s="46" t="s">
+        <v>89</v>
       </c>
       <c r="C64" s="255"/>
-      <c r="D64" s="112">
-        <f>SUM(D65:D70)</f>
-        <v>0</v>
-      </c>
+      <c r="D64" s="40"/>
       <c r="E64" s="139"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="15">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B65" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="C65" s="255"/>
-      <c r="D65" s="40"/>
+        <v>93</v>
+      </c>
+      <c r="C65" s="257"/>
+      <c r="D65" s="41"/>
       <c r="E65" s="139"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="15">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="B66" s="46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C66" s="257"/>
       <c r="D66" s="41"/>
       <c r="E66" s="139"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="15">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="B67" s="46" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C67" s="257"/>
       <c r="D67" s="41"/>
       <c r="E67" s="139"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="15">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="B68" s="46" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C68" s="257"/>
       <c r="D68" s="41"/>
       <c r="E68" s="139"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="15">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="B69" s="46" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C69" s="257"/>
       <c r="D69" s="41"/>
       <c r="E69" s="139"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="15">
-        <v>2.6</v>
-      </c>
-      <c r="B70" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="C70" s="257"/>
-      <c r="D70" s="41"/>
-      <c r="E70" s="139"/>
-    </row>
-    <row r="71" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="13">
+        <v>3</v>
+      </c>
+      <c r="B70" s="253" t="s">
+        <v>415</v>
+      </c>
+      <c r="C70" s="256"/>
+      <c r="D70" s="254"/>
+      <c r="E70" s="99"/>
+    </row>
+    <row r="71" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="13">
-        <v>3</v>
-      </c>
-      <c r="B71" s="253" t="s">
-        <v>415</v>
-      </c>
-      <c r="C71" s="256"/>
-      <c r="D71" s="254"/>
+        <v>4</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C71" s="256">
+        <f>SUM(C72:C73)</f>
+        <v>0</v>
+      </c>
+      <c r="D71" s="80">
+        <f>SUM(D72:D73)</f>
+        <v>0</v>
+      </c>
       <c r="E71" s="99"/>
     </row>
-    <row r="72" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="13">
-        <v>4</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="C72" s="256">
-        <f>SUM(C73:C74)</f>
-        <v>0</v>
-      </c>
-      <c r="D72" s="80">
-        <f>SUM(D73:D74)</f>
-        <v>0</v>
-      </c>
+    <row r="72" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="15">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
       <c r="E72" s="99"/>
     </row>
-    <row r="73" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="15">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
       <c r="E73" s="99"/>
     </row>
-    <row r="74" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="B74" s="15" t="s">
-        <v>242</v>
+    <row r="74" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="13">
+        <v>5</v>
+      </c>
+      <c r="B74" s="252" t="s">
+        <v>268</v>
       </c>
       <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
+      <c r="D74" s="80"/>
       <c r="E74" s="99"/>
     </row>
-    <row r="75" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="13">
-        <v>5</v>
-      </c>
-      <c r="B75" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="C75" s="8"/>
-      <c r="D75" s="80"/>
+    <row r="75" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="263"/>
+      <c r="B75" s="263"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
       <c r="E75" s="99"/>
     </row>
-    <row r="76" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="263"/>
-      <c r="B76" s="263"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
+    <row r="76" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="476" t="s">
+        <v>434</v>
+      </c>
+      <c r="B76" s="476"/>
+      <c r="C76" s="476"/>
+      <c r="D76" s="476"/>
       <c r="E76" s="99"/>
     </row>
-    <row r="77" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="476" t="s">
-        <v>436</v>
-      </c>
-      <c r="B77" s="476"/>
-      <c r="C77" s="476"/>
-      <c r="D77" s="476"/>
+    <row r="77" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="263"/>
+      <c r="B77" s="263"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
       <c r="E77" s="99"/>
     </row>
-    <row r="78" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="263"/>
-      <c r="B78" s="263"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="99"/>
-    </row>
-    <row r="79" spans="1:5" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="64" t="s">
+    <row r="78" spans="1:9" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="E80" s="5"/>
+      <c r="E79" s="5"/>
+    </row>
+    <row r="80" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
     </row>
     <row r="81" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D81" s="12"/>
       <c r="E81"/>
       <c r="F81"/>
       <c r="G81"/>
@@ -25860,6 +25850,10 @@
       <c r="I81"/>
     </row>
     <row r="82" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82"/>
+      <c r="B82" s="42" t="s">
+        <v>435</v>
+      </c>
       <c r="D82" s="12"/>
       <c r="E82"/>
       <c r="F82"/>
@@ -25869,51 +25863,39 @@
     </row>
     <row r="83" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83"/>
-      <c r="B83" s="42" t="s">
-        <v>437</v>
-      </c>
-      <c r="D83" s="12"/>
+      <c r="B83" s="477" t="s">
+        <v>436</v>
+      </c>
+      <c r="C83" s="477"/>
+      <c r="D83" s="477"/>
       <c r="E83"/>
       <c r="F83"/>
       <c r="G83"/>
       <c r="H83"/>
       <c r="I83"/>
     </row>
-    <row r="84" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84"/>
-      <c r="B84" s="477" t="s">
+    <row r="84" spans="1:9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B84" s="60" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="11"/>
+      <c r="B85" s="477" t="s">
         <v>438</v>
       </c>
-      <c r="C84" s="477"/>
-      <c r="D84" s="477"/>
-      <c r="E84"/>
-      <c r="F84"/>
-      <c r="G84"/>
-      <c r="H84"/>
-      <c r="I84"/>
-    </row>
-    <row r="85" spans="1:9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B85" s="60" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="11"/>
-      <c r="B86" s="477" t="s">
-        <v>440</v>
-      </c>
-      <c r="C86" s="477"/>
-      <c r="D86" s="477"/>
-    </row>
+      <c r="C85" s="477"/>
+      <c r="D85" s="477"/>
+    </row>
+    <row r="86" spans="1:9" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="87" spans="1:9" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="1:9" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B85:D85"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -25958,7 +25940,7 @@
       </c>
       <c r="B2" s="72"/>
       <c r="C2" s="474" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D2" s="474"/>
       <c r="E2" s="86"/>
@@ -25991,7 +25973,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="350" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B6" s="75"/>
       <c r="C6" s="76"/>
@@ -26047,7 +26029,7 @@
         <v>318</v>
       </c>
       <c r="B11" s="82" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C11" s="4">
         <v>52.3</v>
@@ -26062,7 +26044,7 @@
         <v>267</v>
       </c>
       <c r="B12" s="82" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C12" s="4">
         <v>150</v>
@@ -26077,7 +26059,7 @@
         <v>267</v>
       </c>
       <c r="B13" s="82" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C13" s="4">
         <v>60</v>
@@ -26092,7 +26074,7 @@
         <v>267</v>
       </c>
       <c r="B14" s="82" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C14" s="4">
         <v>700</v>
@@ -26107,7 +26089,7 @@
         <v>267</v>
       </c>
       <c r="B15" s="82" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C15" s="4">
         <v>50</v>
@@ -26122,7 +26104,7 @@
         <v>267</v>
       </c>
       <c r="B16" s="82" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C16" s="4">
         <v>702</v>
@@ -26301,7 +26283,7 @@
       <c r="G2" s="349"/>
       <c r="H2" s="349"/>
       <c r="I2" s="468" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J2" s="469"/>
     </row>
@@ -26332,7 +26314,7 @@
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="365" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B5" s="75"/>
       <c r="C5" s="75"/>
@@ -26402,16 +26384,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="92" t="s">
+        <v>541</v>
+      </c>
+      <c r="C9" s="92" t="s">
+        <v>542</v>
+      </c>
+      <c r="D9" s="92" t="s">
         <v>543</v>
       </c>
-      <c r="C9" s="92" t="s">
+      <c r="E9" s="92" t="s">
         <v>544</v>
-      </c>
-      <c r="D9" s="92" t="s">
-        <v>545</v>
-      </c>
-      <c r="E9" s="92" t="s">
-        <v>546</v>
       </c>
       <c r="F9" s="92" t="s">
         <v>332</v>
@@ -26434,16 +26416,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="92" t="s">
+        <v>545</v>
+      </c>
+      <c r="C10" s="92" t="s">
+        <v>546</v>
+      </c>
+      <c r="D10" s="92" t="s">
         <v>547</v>
       </c>
-      <c r="C10" s="92" t="s">
+      <c r="E10" s="92" t="s">
         <v>548</v>
-      </c>
-      <c r="D10" s="92" t="s">
-        <v>549</v>
-      </c>
-      <c r="E10" s="92" t="s">
-        <v>550</v>
       </c>
       <c r="F10" s="92" t="s">
         <v>332</v>
@@ -26464,16 +26446,16 @@
         <v>3</v>
       </c>
       <c r="B11" s="92" t="s">
+        <v>549</v>
+      </c>
+      <c r="C11" s="92" t="s">
+        <v>550</v>
+      </c>
+      <c r="D11" s="92" t="s">
         <v>551</v>
       </c>
-      <c r="C11" s="92" t="s">
+      <c r="E11" s="92" t="s">
         <v>552</v>
-      </c>
-      <c r="D11" s="92" t="s">
-        <v>553</v>
-      </c>
-      <c r="E11" s="92" t="s">
-        <v>554</v>
       </c>
       <c r="F11" s="92" t="s">
         <v>332</v>
@@ -26494,16 +26476,16 @@
         <v>4</v>
       </c>
       <c r="B12" s="92" t="s">
+        <v>553</v>
+      </c>
+      <c r="C12" s="92" t="s">
+        <v>554</v>
+      </c>
+      <c r="D12" s="92" t="s">
         <v>555</v>
       </c>
-      <c r="C12" s="92" t="s">
+      <c r="E12" s="92" t="s">
         <v>556</v>
-      </c>
-      <c r="D12" s="92" t="s">
-        <v>557</v>
-      </c>
-      <c r="E12" s="92" t="s">
-        <v>558</v>
       </c>
       <c r="F12" s="92" t="s">
         <v>332</v>
@@ -26524,16 +26506,16 @@
         <v>5</v>
       </c>
       <c r="B13" s="92" t="s">
+        <v>557</v>
+      </c>
+      <c r="C13" s="92" t="s">
+        <v>558</v>
+      </c>
+      <c r="D13" s="92" t="s">
         <v>559</v>
       </c>
-      <c r="C13" s="92" t="s">
+      <c r="E13" s="92" t="s">
         <v>560</v>
-      </c>
-      <c r="D13" s="92" t="s">
-        <v>561</v>
-      </c>
-      <c r="E13" s="92" t="s">
-        <v>562</v>
       </c>
       <c r="F13" s="92" t="s">
         <v>332</v>
@@ -26554,16 +26536,16 @@
         <v>6</v>
       </c>
       <c r="B14" s="92" t="s">
+        <v>561</v>
+      </c>
+      <c r="C14" s="92" t="s">
+        <v>562</v>
+      </c>
+      <c r="D14" s="92" t="s">
         <v>563</v>
       </c>
-      <c r="C14" s="92" t="s">
+      <c r="E14" s="92" t="s">
         <v>564</v>
-      </c>
-      <c r="D14" s="92" t="s">
-        <v>565</v>
-      </c>
-      <c r="E14" s="92" t="s">
-        <v>566</v>
       </c>
       <c r="F14" s="92" t="s">
         <v>332</v>
@@ -26584,16 +26566,16 @@
         <v>7</v>
       </c>
       <c r="B15" s="92" t="s">
+        <v>565</v>
+      </c>
+      <c r="C15" s="92" t="s">
+        <v>566</v>
+      </c>
+      <c r="D15" s="92" t="s">
         <v>567</v>
       </c>
-      <c r="C15" s="92" t="s">
-        <v>568</v>
-      </c>
-      <c r="D15" s="92" t="s">
-        <v>569</v>
-      </c>
       <c r="E15" s="92" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F15" s="92" t="s">
         <v>332</v>
@@ -26614,16 +26596,16 @@
         <v>8</v>
       </c>
       <c r="B16" s="92" t="s">
+        <v>568</v>
+      </c>
+      <c r="C16" s="92" t="s">
+        <v>569</v>
+      </c>
+      <c r="D16" s="92" t="s">
         <v>570</v>
       </c>
-      <c r="C16" s="92" t="s">
+      <c r="E16" s="92" t="s">
         <v>571</v>
-      </c>
-      <c r="D16" s="92" t="s">
-        <v>572</v>
-      </c>
-      <c r="E16" s="92" t="s">
-        <v>573</v>
       </c>
       <c r="F16" s="92" t="s">
         <v>332</v>
@@ -26644,16 +26626,16 @@
         <v>9</v>
       </c>
       <c r="B17" s="92" t="s">
+        <v>572</v>
+      </c>
+      <c r="C17" s="92" t="s">
+        <v>573</v>
+      </c>
+      <c r="D17" s="92" t="s">
         <v>574</v>
       </c>
-      <c r="C17" s="92" t="s">
+      <c r="E17" s="92" t="s">
         <v>575</v>
-      </c>
-      <c r="D17" s="92" t="s">
-        <v>576</v>
-      </c>
-      <c r="E17" s="92" t="s">
-        <v>577</v>
       </c>
       <c r="F17" s="92" t="s">
         <v>332</v>
@@ -26674,16 +26656,16 @@
         <v>10</v>
       </c>
       <c r="B18" s="92" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C18" s="92" t="s">
+        <v>576</v>
+      </c>
+      <c r="D18" s="92" t="s">
+        <v>577</v>
+      </c>
+      <c r="E18" s="92" t="s">
         <v>578</v>
-      </c>
-      <c r="D18" s="92" t="s">
-        <v>579</v>
-      </c>
-      <c r="E18" s="92" t="s">
-        <v>580</v>
       </c>
       <c r="F18" s="92" t="s">
         <v>332</v>
@@ -26704,16 +26686,16 @@
         <v>11</v>
       </c>
       <c r="B19" s="92" t="s">
+        <v>579</v>
+      </c>
+      <c r="C19" s="92" t="s">
+        <v>580</v>
+      </c>
+      <c r="D19" s="92" t="s">
         <v>581</v>
       </c>
-      <c r="C19" s="92" t="s">
+      <c r="E19" s="92" t="s">
         <v>582</v>
-      </c>
-      <c r="D19" s="92" t="s">
-        <v>583</v>
-      </c>
-      <c r="E19" s="92" t="s">
-        <v>584</v>
       </c>
       <c r="F19" s="92" t="s">
         <v>332</v>
@@ -26734,16 +26716,16 @@
         <v>12</v>
       </c>
       <c r="B20" s="92" t="s">
+        <v>583</v>
+      </c>
+      <c r="C20" s="92" t="s">
+        <v>584</v>
+      </c>
+      <c r="D20" s="92" t="s">
         <v>585</v>
       </c>
-      <c r="C20" s="92" t="s">
-        <v>586</v>
-      </c>
-      <c r="D20" s="92" t="s">
-        <v>587</v>
-      </c>
       <c r="E20" s="92" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F20" s="92" t="s">
         <v>332</v>
@@ -26764,16 +26746,16 @@
         <v>13</v>
       </c>
       <c r="B21" s="92" t="s">
+        <v>586</v>
+      </c>
+      <c r="C21" s="92" t="s">
+        <v>587</v>
+      </c>
+      <c r="D21" s="92" t="s">
         <v>588</v>
       </c>
-      <c r="C21" s="92" t="s">
+      <c r="E21" s="92" t="s">
         <v>589</v>
-      </c>
-      <c r="D21" s="92" t="s">
-        <v>590</v>
-      </c>
-      <c r="E21" s="92" t="s">
-        <v>591</v>
       </c>
       <c r="F21" s="92" t="s">
         <v>332</v>
@@ -26794,16 +26776,16 @@
         <v>14</v>
       </c>
       <c r="B22" s="92" t="s">
+        <v>590</v>
+      </c>
+      <c r="C22" s="92" t="s">
+        <v>591</v>
+      </c>
+      <c r="D22" s="92" t="s">
         <v>592</v>
       </c>
-      <c r="C22" s="92" t="s">
-        <v>593</v>
-      </c>
-      <c r="D22" s="92" t="s">
-        <v>594</v>
-      </c>
       <c r="E22" s="92" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F22" s="92" t="s">
         <v>332</v>
@@ -26824,16 +26806,16 @@
         <v>15</v>
       </c>
       <c r="B23" s="92" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C23" s="92" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D23" s="92">
         <v>61005008154</v>
       </c>
       <c r="E23" s="92" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F23" s="92" t="s">
         <v>332</v>
@@ -26854,16 +26836,16 @@
         <v>16</v>
       </c>
       <c r="B24" s="92" t="s">
+        <v>595</v>
+      </c>
+      <c r="C24" s="92" t="s">
+        <v>596</v>
+      </c>
+      <c r="D24" s="92" t="s">
         <v>597</v>
       </c>
-      <c r="C24" s="92" t="s">
-        <v>598</v>
-      </c>
-      <c r="D24" s="92" t="s">
-        <v>599</v>
-      </c>
       <c r="E24" s="92" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F24" s="92" t="s">
         <v>332</v>
@@ -26884,16 +26866,16 @@
         <v>17</v>
       </c>
       <c r="B25" s="92" t="s">
+        <v>598</v>
+      </c>
+      <c r="C25" s="92" t="s">
+        <v>599</v>
+      </c>
+      <c r="D25" s="92" t="s">
         <v>600</v>
       </c>
-      <c r="C25" s="92" t="s">
-        <v>601</v>
-      </c>
-      <c r="D25" s="92" t="s">
-        <v>602</v>
-      </c>
       <c r="E25" s="92" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F25" s="92" t="s">
         <v>332</v>
@@ -26914,16 +26896,16 @@
         <v>18</v>
       </c>
       <c r="B26" s="92" t="s">
+        <v>601</v>
+      </c>
+      <c r="C26" s="92" t="s">
+        <v>602</v>
+      </c>
+      <c r="D26" s="92" t="s">
         <v>603</v>
       </c>
-      <c r="C26" s="92" t="s">
-        <v>604</v>
-      </c>
-      <c r="D26" s="92" t="s">
-        <v>605</v>
-      </c>
       <c r="E26" s="92" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F26" s="92" t="s">
         <v>332</v>
@@ -26944,16 +26926,16 @@
         <v>19</v>
       </c>
       <c r="B27" s="92" t="s">
+        <v>604</v>
+      </c>
+      <c r="C27" s="92" t="s">
+        <v>605</v>
+      </c>
+      <c r="D27" s="92" t="s">
         <v>606</v>
       </c>
-      <c r="C27" s="92" t="s">
-        <v>607</v>
-      </c>
-      <c r="D27" s="92" t="s">
-        <v>608</v>
-      </c>
       <c r="E27" s="92" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F27" s="92" t="s">
         <v>332</v>
@@ -26974,16 +26956,16 @@
         <v>20</v>
       </c>
       <c r="B28" s="92" t="s">
+        <v>607</v>
+      </c>
+      <c r="C28" s="92" t="s">
+        <v>608</v>
+      </c>
+      <c r="D28" s="92" t="s">
         <v>609</v>
       </c>
-      <c r="C28" s="92" t="s">
-        <v>610</v>
-      </c>
-      <c r="D28" s="92" t="s">
-        <v>611</v>
-      </c>
       <c r="E28" s="92" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F28" s="92" t="s">
         <v>332</v>
@@ -27004,16 +26986,16 @@
         <v>21</v>
       </c>
       <c r="B29" s="92" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C29" s="92" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D29" s="92">
         <v>61008000439</v>
       </c>
       <c r="E29" s="92" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F29" s="92" t="s">
         <v>332</v>
@@ -27034,16 +27016,16 @@
         <v>22</v>
       </c>
       <c r="B30" s="92" t="s">
+        <v>612</v>
+      </c>
+      <c r="C30" s="92" t="s">
+        <v>613</v>
+      </c>
+      <c r="D30" s="92" t="s">
         <v>614</v>
       </c>
-      <c r="C30" s="92" t="s">
-        <v>615</v>
-      </c>
-      <c r="D30" s="92" t="s">
-        <v>616</v>
-      </c>
       <c r="E30" s="92" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F30" s="92" t="s">
         <v>332</v>
@@ -27064,16 +27046,16 @@
         <v>23</v>
       </c>
       <c r="B31" s="92" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C31" s="92" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D31" s="92">
         <v>57001007147</v>
       </c>
       <c r="E31" s="92" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F31" s="92" t="s">
         <v>332</v>
@@ -27094,16 +27076,16 @@
         <v>24</v>
       </c>
       <c r="B32" s="92" t="s">
+        <v>617</v>
+      </c>
+      <c r="C32" s="92" t="s">
+        <v>618</v>
+      </c>
+      <c r="D32" s="92" t="s">
         <v>619</v>
       </c>
-      <c r="C32" s="92" t="s">
-        <v>620</v>
-      </c>
-      <c r="D32" s="92" t="s">
-        <v>621</v>
-      </c>
       <c r="E32" s="92" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F32" s="92" t="s">
         <v>332</v>
@@ -27124,16 +27106,16 @@
         <v>25</v>
       </c>
       <c r="B33" s="92" t="s">
+        <v>620</v>
+      </c>
+      <c r="C33" s="92" t="s">
+        <v>621</v>
+      </c>
+      <c r="D33" s="92" t="s">
         <v>622</v>
       </c>
-      <c r="C33" s="92" t="s">
+      <c r="E33" s="92" t="s">
         <v>623</v>
-      </c>
-      <c r="D33" s="92" t="s">
-        <v>624</v>
-      </c>
-      <c r="E33" s="92" t="s">
-        <v>625</v>
       </c>
       <c r="F33" s="92" t="s">
         <v>332</v>
@@ -27154,16 +27136,16 @@
         <v>26</v>
       </c>
       <c r="B34" s="92" t="s">
+        <v>624</v>
+      </c>
+      <c r="C34" s="92" t="s">
+        <v>625</v>
+      </c>
+      <c r="D34" s="92" t="s">
         <v>626</v>
       </c>
-      <c r="C34" s="92" t="s">
-        <v>627</v>
-      </c>
-      <c r="D34" s="92" t="s">
-        <v>628</v>
-      </c>
       <c r="E34" s="92" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F34" s="92" t="s">
         <v>332</v>
@@ -27184,16 +27166,16 @@
         <v>27</v>
       </c>
       <c r="B35" s="92" t="s">
+        <v>627</v>
+      </c>
+      <c r="C35" s="92" t="s">
+        <v>628</v>
+      </c>
+      <c r="D35" s="92" t="s">
         <v>629</v>
       </c>
-      <c r="C35" s="92" t="s">
-        <v>630</v>
-      </c>
-      <c r="D35" s="92" t="s">
-        <v>631</v>
-      </c>
       <c r="E35" s="92" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F35" s="92" t="s">
         <v>332</v>
@@ -27214,16 +27196,16 @@
         <v>28</v>
       </c>
       <c r="B36" s="92" t="s">
+        <v>630</v>
+      </c>
+      <c r="C36" s="92" t="s">
+        <v>631</v>
+      </c>
+      <c r="D36" s="92" t="s">
         <v>632</v>
       </c>
-      <c r="C36" s="92" t="s">
-        <v>633</v>
-      </c>
-      <c r="D36" s="92" t="s">
-        <v>634</v>
-      </c>
       <c r="E36" s="92" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F36" s="92" t="s">
         <v>332</v>
@@ -27244,16 +27226,16 @@
         <v>29</v>
       </c>
       <c r="B37" s="92" t="s">
+        <v>633</v>
+      </c>
+      <c r="C37" s="92" t="s">
+        <v>634</v>
+      </c>
+      <c r="D37" s="92" t="s">
         <v>635</v>
       </c>
-      <c r="C37" s="92" t="s">
-        <v>636</v>
-      </c>
-      <c r="D37" s="92" t="s">
-        <v>637</v>
-      </c>
       <c r="E37" s="92" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F37" s="92" t="s">
         <v>332</v>
@@ -27274,16 +27256,16 @@
         <v>30</v>
       </c>
       <c r="B38" s="92" t="s">
+        <v>636</v>
+      </c>
+      <c r="C38" s="92" t="s">
+        <v>637</v>
+      </c>
+      <c r="D38" s="92" t="s">
         <v>638</v>
       </c>
-      <c r="C38" s="92" t="s">
-        <v>639</v>
-      </c>
-      <c r="D38" s="92" t="s">
-        <v>640</v>
-      </c>
       <c r="E38" s="92" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F38" s="92" t="s">
         <v>332</v>
@@ -27304,16 +27286,16 @@
         <v>31</v>
       </c>
       <c r="B39" s="92" t="s">
+        <v>639</v>
+      </c>
+      <c r="C39" s="92" t="s">
+        <v>640</v>
+      </c>
+      <c r="D39" s="92" t="s">
         <v>641</v>
       </c>
-      <c r="C39" s="92" t="s">
-        <v>642</v>
-      </c>
-      <c r="D39" s="92" t="s">
-        <v>643</v>
-      </c>
       <c r="E39" s="92" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F39" s="92" t="s">
         <v>332</v>
@@ -27334,16 +27316,16 @@
         <v>32</v>
       </c>
       <c r="B40" s="92" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C40" s="92" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D40" s="92">
         <v>59003002090</v>
       </c>
       <c r="E40" s="92" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F40" s="92" t="s">
         <v>332</v>
@@ -27364,16 +27346,16 @@
         <v>33</v>
       </c>
       <c r="B41" s="92" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C41" s="92" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D41" s="92" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E41" s="92" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F41" s="92" t="s">
         <v>332</v>
@@ -27394,16 +27376,16 @@
         <v>34</v>
       </c>
       <c r="B42" s="92" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C42" s="92" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D42" s="92" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E42" s="92" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F42" s="92" t="s">
         <v>332</v>
@@ -27424,16 +27406,16 @@
         <v>35</v>
       </c>
       <c r="B43" s="92" t="s">
+        <v>648</v>
+      </c>
+      <c r="C43" s="92" t="s">
+        <v>649</v>
+      </c>
+      <c r="D43" s="92" t="s">
         <v>650</v>
       </c>
-      <c r="C43" s="92" t="s">
-        <v>651</v>
-      </c>
-      <c r="D43" s="92" t="s">
-        <v>652</v>
-      </c>
       <c r="E43" s="92" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F43" s="92" t="s">
         <v>332</v>
@@ -27454,16 +27436,16 @@
         <v>36</v>
       </c>
       <c r="B44" s="92" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C44" s="92" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D44" s="92" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E44" s="92" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F44" s="92" t="s">
         <v>332</v>
@@ -27484,16 +27466,16 @@
         <v>37</v>
       </c>
       <c r="B45" s="92" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C45" s="92" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D45" s="92" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E45" s="92" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F45" s="92" t="s">
         <v>332</v>
@@ -27514,16 +27496,16 @@
         <v>38</v>
       </c>
       <c r="B46" s="92" t="s">
+        <v>655</v>
+      </c>
+      <c r="C46" s="92" t="s">
+        <v>656</v>
+      </c>
+      <c r="D46" s="92" t="s">
         <v>657</v>
       </c>
-      <c r="C46" s="92" t="s">
-        <v>658</v>
-      </c>
-      <c r="D46" s="92" t="s">
-        <v>659</v>
-      </c>
       <c r="E46" s="92" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F46" s="92" t="s">
         <v>332</v>
@@ -27544,16 +27526,16 @@
         <v>39</v>
       </c>
       <c r="B47" s="92" t="s">
+        <v>658</v>
+      </c>
+      <c r="C47" s="92" t="s">
+        <v>659</v>
+      </c>
+      <c r="D47" s="92" t="s">
         <v>660</v>
       </c>
-      <c r="C47" s="92" t="s">
-        <v>661</v>
-      </c>
-      <c r="D47" s="92" t="s">
-        <v>662</v>
-      </c>
       <c r="E47" s="92" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F47" s="92" t="s">
         <v>332</v>
@@ -27574,16 +27556,16 @@
         <v>40</v>
       </c>
       <c r="B48" s="92" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C48" s="92" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D48" s="92" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E48" s="92" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F48" s="92" t="s">
         <v>332</v>
@@ -27604,16 +27586,16 @@
         <v>41</v>
       </c>
       <c r="B49" s="92" t="s">
+        <v>663</v>
+      </c>
+      <c r="C49" s="92" t="s">
+        <v>664</v>
+      </c>
+      <c r="D49" s="92" t="s">
         <v>665</v>
       </c>
-      <c r="C49" s="92" t="s">
-        <v>666</v>
-      </c>
-      <c r="D49" s="92" t="s">
-        <v>667</v>
-      </c>
       <c r="E49" s="92" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F49" s="92" t="s">
         <v>332</v>
@@ -27634,16 +27616,16 @@
         <v>42</v>
       </c>
       <c r="B50" s="92" t="s">
+        <v>666</v>
+      </c>
+      <c r="C50" s="92" t="s">
+        <v>667</v>
+      </c>
+      <c r="D50" s="92" t="s">
         <v>668</v>
       </c>
-      <c r="C50" s="92" t="s">
-        <v>669</v>
-      </c>
-      <c r="D50" s="92" t="s">
-        <v>670</v>
-      </c>
       <c r="E50" s="92" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F50" s="92" t="s">
         <v>332</v>
@@ -27664,16 +27646,16 @@
         <v>43</v>
       </c>
       <c r="B51" s="92" t="s">
+        <v>669</v>
+      </c>
+      <c r="C51" s="92" t="s">
+        <v>670</v>
+      </c>
+      <c r="D51" s="92" t="s">
         <v>671</v>
       </c>
-      <c r="C51" s="92" t="s">
-        <v>672</v>
-      </c>
-      <c r="D51" s="92" t="s">
-        <v>673</v>
-      </c>
       <c r="E51" s="92" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F51" s="92" t="s">
         <v>332</v>
@@ -27694,16 +27676,16 @@
         <v>44</v>
       </c>
       <c r="B52" s="92" t="s">
+        <v>672</v>
+      </c>
+      <c r="C52" s="92" t="s">
+        <v>673</v>
+      </c>
+      <c r="D52" s="92" t="s">
         <v>674</v>
       </c>
-      <c r="C52" s="92" t="s">
-        <v>675</v>
-      </c>
-      <c r="D52" s="92" t="s">
-        <v>676</v>
-      </c>
       <c r="E52" s="92" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F52" s="92" t="s">
         <v>332</v>
@@ -27724,16 +27706,16 @@
         <v>45</v>
       </c>
       <c r="B53" s="92" t="s">
+        <v>675</v>
+      </c>
+      <c r="C53" s="92" t="s">
+        <v>676</v>
+      </c>
+      <c r="D53" s="92" t="s">
         <v>677</v>
       </c>
-      <c r="C53" s="92" t="s">
-        <v>678</v>
-      </c>
-      <c r="D53" s="92" t="s">
-        <v>679</v>
-      </c>
       <c r="E53" s="92" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F53" s="92" t="s">
         <v>332</v>
@@ -27754,16 +27736,16 @@
         <v>46</v>
       </c>
       <c r="B54" s="92" t="s">
+        <v>678</v>
+      </c>
+      <c r="C54" s="92" t="s">
+        <v>679</v>
+      </c>
+      <c r="D54" s="92" t="s">
         <v>680</v>
       </c>
-      <c r="C54" s="92" t="s">
-        <v>681</v>
-      </c>
-      <c r="D54" s="92" t="s">
-        <v>682</v>
-      </c>
       <c r="E54" s="92" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F54" s="92" t="s">
         <v>332</v>
@@ -27784,16 +27766,16 @@
         <v>47</v>
       </c>
       <c r="B55" s="92" t="s">
+        <v>681</v>
+      </c>
+      <c r="C55" s="92" t="s">
+        <v>682</v>
+      </c>
+      <c r="D55" s="92" t="s">
         <v>683</v>
       </c>
-      <c r="C55" s="92" t="s">
-        <v>684</v>
-      </c>
-      <c r="D55" s="92" t="s">
-        <v>685</v>
-      </c>
       <c r="E55" s="92" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F55" s="92" t="s">
         <v>332</v>
@@ -27814,16 +27796,16 @@
         <v>48</v>
       </c>
       <c r="B56" s="92" t="s">
+        <v>684</v>
+      </c>
+      <c r="C56" s="92" t="s">
+        <v>685</v>
+      </c>
+      <c r="D56" s="92" t="s">
         <v>686</v>
       </c>
-      <c r="C56" s="92" t="s">
+      <c r="E56" s="92" t="s">
         <v>687</v>
-      </c>
-      <c r="D56" s="92" t="s">
-        <v>688</v>
-      </c>
-      <c r="E56" s="92" t="s">
-        <v>689</v>
       </c>
       <c r="F56" s="92" t="s">
         <v>332</v>
@@ -27844,16 +27826,16 @@
         <v>49</v>
       </c>
       <c r="B57" s="92" t="s">
+        <v>688</v>
+      </c>
+      <c r="C57" s="92" t="s">
+        <v>689</v>
+      </c>
+      <c r="D57" s="92" t="s">
         <v>690</v>
       </c>
-      <c r="C57" s="92" t="s">
-        <v>691</v>
-      </c>
-      <c r="D57" s="92" t="s">
-        <v>692</v>
-      </c>
       <c r="E57" s="92" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F57" s="92" t="s">
         <v>332</v>
@@ -27874,16 +27856,16 @@
         <v>50</v>
       </c>
       <c r="B58" s="92" t="s">
+        <v>691</v>
+      </c>
+      <c r="C58" s="92" t="s">
+        <v>692</v>
+      </c>
+      <c r="D58" s="92" t="s">
         <v>693</v>
       </c>
-      <c r="C58" s="92" t="s">
-        <v>694</v>
-      </c>
-      <c r="D58" s="92" t="s">
-        <v>695</v>
-      </c>
       <c r="E58" s="92" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F58" s="92" t="s">
         <v>332</v>
@@ -27904,16 +27886,16 @@
         <v>51</v>
       </c>
       <c r="B59" s="92" t="s">
+        <v>694</v>
+      </c>
+      <c r="C59" s="92" t="s">
+        <v>695</v>
+      </c>
+      <c r="D59" s="92" t="s">
         <v>696</v>
       </c>
-      <c r="C59" s="92" t="s">
-        <v>697</v>
-      </c>
-      <c r="D59" s="92" t="s">
-        <v>698</v>
-      </c>
       <c r="E59" s="92" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F59" s="92" t="s">
         <v>332</v>
@@ -27934,16 +27916,16 @@
         <v>52</v>
       </c>
       <c r="B60" s="92" t="s">
+        <v>697</v>
+      </c>
+      <c r="C60" s="92" t="s">
+        <v>698</v>
+      </c>
+      <c r="D60" s="92" t="s">
         <v>699</v>
       </c>
-      <c r="C60" s="92" t="s">
-        <v>700</v>
-      </c>
-      <c r="D60" s="92" t="s">
-        <v>701</v>
-      </c>
       <c r="E60" s="92" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F60" s="92" t="s">
         <v>332</v>
@@ -27964,16 +27946,16 @@
         <v>53</v>
       </c>
       <c r="B61" s="92" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C61" s="92" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D61" s="92" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E61" s="92" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F61" s="92" t="s">
         <v>332</v>
@@ -27994,16 +27976,16 @@
         <v>54</v>
       </c>
       <c r="B62" s="92" t="s">
+        <v>702</v>
+      </c>
+      <c r="C62" s="92" t="s">
+        <v>703</v>
+      </c>
+      <c r="D62" s="92" t="s">
         <v>704</v>
       </c>
-      <c r="C62" s="92" t="s">
-        <v>705</v>
-      </c>
-      <c r="D62" s="92" t="s">
-        <v>706</v>
-      </c>
       <c r="E62" s="92" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F62" s="92" t="s">
         <v>332</v>
@@ -28024,16 +28006,16 @@
         <v>55</v>
       </c>
       <c r="B63" s="92" t="s">
+        <v>705</v>
+      </c>
+      <c r="C63" s="92" t="s">
+        <v>706</v>
+      </c>
+      <c r="D63" s="92" t="s">
         <v>707</v>
       </c>
-      <c r="C63" s="92" t="s">
-        <v>708</v>
-      </c>
-      <c r="D63" s="92" t="s">
-        <v>709</v>
-      </c>
       <c r="E63" s="92" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F63" s="92" t="s">
         <v>332</v>
@@ -28054,16 +28036,16 @@
         <v>56</v>
       </c>
       <c r="B64" s="92" t="s">
+        <v>708</v>
+      </c>
+      <c r="C64" s="92" t="s">
+        <v>709</v>
+      </c>
+      <c r="D64" s="92" t="s">
         <v>710</v>
       </c>
-      <c r="C64" s="92" t="s">
-        <v>711</v>
-      </c>
-      <c r="D64" s="92" t="s">
-        <v>712</v>
-      </c>
       <c r="E64" s="92" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F64" s="92" t="s">
         <v>332</v>
@@ -28084,16 +28066,16 @@
         <v>57</v>
       </c>
       <c r="B65" s="92" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C65" s="92" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D65" s="92" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E65" s="92" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F65" s="92" t="s">
         <v>332</v>
@@ -28114,16 +28096,16 @@
         <v>58</v>
       </c>
       <c r="B66" s="92" t="s">
+        <v>713</v>
+      </c>
+      <c r="C66" s="92" t="s">
+        <v>714</v>
+      </c>
+      <c r="D66" s="92" t="s">
         <v>715</v>
       </c>
-      <c r="C66" s="92" t="s">
-        <v>716</v>
-      </c>
-      <c r="D66" s="92" t="s">
-        <v>717</v>
-      </c>
       <c r="E66" s="92" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F66" s="92" t="s">
         <v>332</v>
@@ -28144,16 +28126,16 @@
         <v>59</v>
       </c>
       <c r="B67" s="92" t="s">
+        <v>716</v>
+      </c>
+      <c r="C67" s="92" t="s">
+        <v>717</v>
+      </c>
+      <c r="D67" s="92" t="s">
         <v>718</v>
       </c>
-      <c r="C67" s="92" t="s">
-        <v>719</v>
-      </c>
-      <c r="D67" s="92" t="s">
-        <v>720</v>
-      </c>
       <c r="E67" s="92" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F67" s="92" t="s">
         <v>332</v>
@@ -28174,16 +28156,16 @@
         <v>60</v>
       </c>
       <c r="B68" s="92" t="s">
+        <v>719</v>
+      </c>
+      <c r="C68" s="92" t="s">
+        <v>720</v>
+      </c>
+      <c r="D68" s="92" t="s">
         <v>721</v>
       </c>
-      <c r="C68" s="92" t="s">
-        <v>722</v>
-      </c>
-      <c r="D68" s="92" t="s">
-        <v>723</v>
-      </c>
       <c r="E68" s="92" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F68" s="92" t="s">
         <v>332</v>
@@ -28204,16 +28186,16 @@
         <v>61</v>
       </c>
       <c r="B69" s="92" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C69" s="92" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D69" s="92" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E69" s="92" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F69" s="92" t="s">
         <v>332</v>
@@ -28234,16 +28216,16 @@
         <v>62</v>
       </c>
       <c r="B70" s="92" t="s">
+        <v>724</v>
+      </c>
+      <c r="C70" s="92" t="s">
+        <v>725</v>
+      </c>
+      <c r="D70" s="92" t="s">
         <v>726</v>
       </c>
-      <c r="C70" s="92" t="s">
-        <v>727</v>
-      </c>
-      <c r="D70" s="92" t="s">
-        <v>728</v>
-      </c>
       <c r="E70" s="92" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F70" s="92" t="s">
         <v>332</v>
@@ -28264,16 +28246,16 @@
         <v>63</v>
       </c>
       <c r="B71" s="92" t="s">
+        <v>727</v>
+      </c>
+      <c r="C71" s="92" t="s">
+        <v>728</v>
+      </c>
+      <c r="D71" s="92" t="s">
         <v>729</v>
       </c>
-      <c r="C71" s="92" t="s">
-        <v>730</v>
-      </c>
-      <c r="D71" s="92" t="s">
-        <v>731</v>
-      </c>
       <c r="E71" s="92" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F71" s="92" t="s">
         <v>332</v>
@@ -28294,16 +28276,16 @@
         <v>64</v>
       </c>
       <c r="B72" s="92" t="s">
+        <v>730</v>
+      </c>
+      <c r="C72" s="92" t="s">
+        <v>731</v>
+      </c>
+      <c r="D72" s="92" t="s">
         <v>732</v>
       </c>
-      <c r="C72" s="92" t="s">
-        <v>733</v>
-      </c>
-      <c r="D72" s="92" t="s">
-        <v>734</v>
-      </c>
       <c r="E72" s="92" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F72" s="92" t="s">
         <v>332</v>
@@ -28324,16 +28306,16 @@
         <v>65</v>
       </c>
       <c r="B73" s="92" t="s">
+        <v>733</v>
+      </c>
+      <c r="C73" s="92" t="s">
+        <v>734</v>
+      </c>
+      <c r="D73" s="92" t="s">
         <v>735</v>
       </c>
-      <c r="C73" s="92" t="s">
-        <v>736</v>
-      </c>
-      <c r="D73" s="92" t="s">
-        <v>737</v>
-      </c>
       <c r="E73" s="92" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F73" s="92" t="s">
         <v>332</v>
@@ -28354,16 +28336,16 @@
         <v>66</v>
       </c>
       <c r="B74" s="92" t="s">
+        <v>736</v>
+      </c>
+      <c r="C74" s="92" t="s">
+        <v>737</v>
+      </c>
+      <c r="D74" s="92" t="s">
         <v>738</v>
       </c>
-      <c r="C74" s="92" t="s">
-        <v>739</v>
-      </c>
-      <c r="D74" s="92" t="s">
-        <v>740</v>
-      </c>
       <c r="E74" s="92" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F74" s="92" t="s">
         <v>332</v>
@@ -28384,16 +28366,16 @@
         <v>67</v>
       </c>
       <c r="B75" s="92" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C75" s="92" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D75" s="92" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E75" s="92" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F75" s="92" t="s">
         <v>332</v>
@@ -28414,16 +28396,16 @@
         <v>68</v>
       </c>
       <c r="B76" s="92" t="s">
+        <v>741</v>
+      </c>
+      <c r="C76" s="92" t="s">
+        <v>742</v>
+      </c>
+      <c r="D76" s="92" t="s">
         <v>743</v>
       </c>
-      <c r="C76" s="92" t="s">
-        <v>744</v>
-      </c>
-      <c r="D76" s="92" t="s">
-        <v>745</v>
-      </c>
       <c r="E76" s="92" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F76" s="92" t="s">
         <v>332</v>
@@ -28444,16 +28426,16 @@
         <v>69</v>
       </c>
       <c r="B77" s="92" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C77" s="92" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D77" s="92" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E77" s="92" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F77" s="92" t="s">
         <v>332</v>
@@ -28474,16 +28456,16 @@
         <v>70</v>
       </c>
       <c r="B78" s="92" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C78" s="92" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D78" s="92" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E78" s="92" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F78" s="92" t="s">
         <v>332</v>
@@ -28504,16 +28486,16 @@
         <v>71</v>
       </c>
       <c r="B79" s="92" t="s">
+        <v>748</v>
+      </c>
+      <c r="C79" s="92" t="s">
+        <v>749</v>
+      </c>
+      <c r="D79" s="92" t="s">
         <v>750</v>
       </c>
-      <c r="C79" s="92" t="s">
-        <v>751</v>
-      </c>
-      <c r="D79" s="92" t="s">
-        <v>752</v>
-      </c>
       <c r="E79" s="92" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F79" s="92" t="s">
         <v>332</v>
@@ -28534,16 +28516,16 @@
         <v>72</v>
       </c>
       <c r="B80" s="92" t="s">
+        <v>751</v>
+      </c>
+      <c r="C80" s="92" t="s">
+        <v>752</v>
+      </c>
+      <c r="D80" s="92" t="s">
         <v>753</v>
       </c>
-      <c r="C80" s="92" t="s">
-        <v>754</v>
-      </c>
-      <c r="D80" s="92" t="s">
-        <v>755</v>
-      </c>
       <c r="E80" s="92" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F80" s="92" t="s">
         <v>332</v>
@@ -28564,16 +28546,16 @@
         <v>73</v>
       </c>
       <c r="B81" s="92" t="s">
+        <v>754</v>
+      </c>
+      <c r="C81" s="92" t="s">
+        <v>755</v>
+      </c>
+      <c r="D81" s="92" t="s">
         <v>756</v>
       </c>
-      <c r="C81" s="92" t="s">
-        <v>757</v>
-      </c>
-      <c r="D81" s="92" t="s">
-        <v>758</v>
-      </c>
       <c r="E81" s="92" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F81" s="92" t="s">
         <v>332</v>
@@ -28594,16 +28576,16 @@
         <v>74</v>
       </c>
       <c r="B82" s="92" t="s">
+        <v>757</v>
+      </c>
+      <c r="C82" s="92" t="s">
+        <v>758</v>
+      </c>
+      <c r="D82" s="92" t="s">
         <v>759</v>
       </c>
-      <c r="C82" s="92" t="s">
-        <v>760</v>
-      </c>
-      <c r="D82" s="92" t="s">
-        <v>761</v>
-      </c>
       <c r="E82" s="92" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F82" s="92" t="s">
         <v>332</v>
@@ -28624,16 +28606,16 @@
         <v>75</v>
       </c>
       <c r="B83" s="92" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C83" s="92" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D83" s="92" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E83" s="92" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F83" s="92" t="s">
         <v>332</v>
@@ -28654,16 +28636,16 @@
         <v>76</v>
       </c>
       <c r="B84" s="92" t="s">
+        <v>762</v>
+      </c>
+      <c r="C84" s="92" t="s">
+        <v>763</v>
+      </c>
+      <c r="D84" s="92" t="s">
         <v>764</v>
       </c>
-      <c r="C84" s="92" t="s">
-        <v>765</v>
-      </c>
-      <c r="D84" s="92" t="s">
-        <v>766</v>
-      </c>
       <c r="E84" s="92" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F84" s="92" t="s">
         <v>332</v>
@@ -28684,16 +28666,16 @@
         <v>77</v>
       </c>
       <c r="B85" s="92" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C85" s="92" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D85" s="92" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E85" s="92" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F85" s="92" t="s">
         <v>332</v>
@@ -28714,16 +28696,16 @@
         <v>78</v>
       </c>
       <c r="B86" s="92" t="s">
+        <v>767</v>
+      </c>
+      <c r="C86" s="92" t="s">
+        <v>768</v>
+      </c>
+      <c r="D86" s="92" t="s">
         <v>769</v>
       </c>
-      <c r="C86" s="92" t="s">
-        <v>770</v>
-      </c>
-      <c r="D86" s="92" t="s">
-        <v>771</v>
-      </c>
       <c r="E86" s="92" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F86" s="92" t="s">
         <v>332</v>
@@ -28744,16 +28726,16 @@
         <v>79</v>
       </c>
       <c r="B87" s="92" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C87" s="92" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D87" s="92" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E87" s="92" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F87" s="92" t="s">
         <v>332</v>
@@ -28774,16 +28756,16 @@
         <v>80</v>
       </c>
       <c r="B88" s="92" t="s">
+        <v>772</v>
+      </c>
+      <c r="C88" s="92" t="s">
+        <v>773</v>
+      </c>
+      <c r="D88" s="92" t="s">
         <v>774</v>
       </c>
-      <c r="C88" s="92" t="s">
-        <v>775</v>
-      </c>
-      <c r="D88" s="92" t="s">
-        <v>776</v>
-      </c>
       <c r="E88" s="92" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F88" s="92" t="s">
         <v>332</v>
@@ -28804,16 +28786,16 @@
         <v>81</v>
       </c>
       <c r="B89" s="92" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C89" s="92" t="s">
+        <v>773</v>
+      </c>
+      <c r="D89" s="92" t="s">
         <v>775</v>
       </c>
-      <c r="D89" s="92" t="s">
-        <v>777</v>
-      </c>
       <c r="E89" s="92" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="F89" s="92" t="s">
         <v>332</v>
@@ -28834,16 +28816,16 @@
         <v>82</v>
       </c>
       <c r="B90" s="92" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C90" s="92" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D90" s="92" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E90" s="92" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F90" s="92" t="s">
         <v>332</v>
@@ -28864,16 +28846,16 @@
         <v>83</v>
       </c>
       <c r="B91" s="92" t="s">
+        <v>779</v>
+      </c>
+      <c r="C91" s="92" t="s">
+        <v>780</v>
+      </c>
+      <c r="D91" s="92" t="s">
         <v>781</v>
       </c>
-      <c r="C91" s="92" t="s">
-        <v>782</v>
-      </c>
-      <c r="D91" s="92" t="s">
-        <v>783</v>
-      </c>
       <c r="E91" s="92" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F91" s="92" t="s">
         <v>332</v>
@@ -28894,16 +28876,16 @@
         <v>84</v>
       </c>
       <c r="B92" s="92" t="s">
+        <v>782</v>
+      </c>
+      <c r="C92" s="92" t="s">
+        <v>783</v>
+      </c>
+      <c r="D92" s="92" t="s">
         <v>784</v>
       </c>
-      <c r="C92" s="92" t="s">
-        <v>785</v>
-      </c>
-      <c r="D92" s="92" t="s">
-        <v>786</v>
-      </c>
       <c r="E92" s="92" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F92" s="92" t="s">
         <v>332</v>
@@ -28924,16 +28906,16 @@
         <v>85</v>
       </c>
       <c r="B93" s="92" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C93" s="92" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D93" s="92" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E93" s="92" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F93" s="92" t="s">
         <v>332</v>
@@ -28954,16 +28936,16 @@
         <v>86</v>
       </c>
       <c r="B94" s="92" t="s">
+        <v>787</v>
+      </c>
+      <c r="C94" s="92" t="s">
+        <v>788</v>
+      </c>
+      <c r="D94" s="92" t="s">
         <v>789</v>
       </c>
-      <c r="C94" s="92" t="s">
-        <v>790</v>
-      </c>
-      <c r="D94" s="92" t="s">
-        <v>791</v>
-      </c>
       <c r="E94" s="92" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F94" s="92" t="s">
         <v>332</v>
@@ -28984,16 +28966,16 @@
         <v>87</v>
       </c>
       <c r="B95" s="92" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C95" s="92" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D95" s="92" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E95" s="92" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F95" s="92" t="s">
         <v>332</v>
@@ -29014,16 +28996,16 @@
         <v>88</v>
       </c>
       <c r="B96" s="92" t="s">
+        <v>792</v>
+      </c>
+      <c r="C96" s="92" t="s">
+        <v>793</v>
+      </c>
+      <c r="D96" s="92" t="s">
         <v>794</v>
       </c>
-      <c r="C96" s="92" t="s">
-        <v>795</v>
-      </c>
-      <c r="D96" s="92" t="s">
-        <v>796</v>
-      </c>
       <c r="E96" s="92" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F96" s="92" t="s">
         <v>332</v>
@@ -29044,16 +29026,16 @@
         <v>89</v>
       </c>
       <c r="B97" s="92" t="s">
+        <v>795</v>
+      </c>
+      <c r="C97" s="92" t="s">
+        <v>796</v>
+      </c>
+      <c r="D97" s="92" t="s">
         <v>797</v>
       </c>
-      <c r="C97" s="92" t="s">
-        <v>798</v>
-      </c>
-      <c r="D97" s="92" t="s">
-        <v>799</v>
-      </c>
       <c r="E97" s="92" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F97" s="92" t="s">
         <v>332</v>
@@ -29074,16 +29056,16 @@
         <v>90</v>
       </c>
       <c r="B98" s="92" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C98" s="92" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D98" s="92" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E98" s="92" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F98" s="92" t="s">
         <v>332</v>
@@ -29104,16 +29086,16 @@
         <v>91</v>
       </c>
       <c r="B99" s="92" t="s">
+        <v>799</v>
+      </c>
+      <c r="C99" s="92" t="s">
+        <v>800</v>
+      </c>
+      <c r="D99" s="92" t="s">
         <v>801</v>
       </c>
-      <c r="C99" s="92" t="s">
-        <v>802</v>
-      </c>
-      <c r="D99" s="92" t="s">
-        <v>803</v>
-      </c>
       <c r="E99" s="92" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F99" s="92" t="s">
         <v>332</v>
@@ -29134,16 +29116,16 @@
         <v>92</v>
       </c>
       <c r="B100" s="92" t="s">
+        <v>802</v>
+      </c>
+      <c r="C100" s="92" t="s">
+        <v>803</v>
+      </c>
+      <c r="D100" s="92" t="s">
         <v>804</v>
       </c>
-      <c r="C100" s="92" t="s">
-        <v>805</v>
-      </c>
-      <c r="D100" s="92" t="s">
-        <v>806</v>
-      </c>
       <c r="E100" s="92" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F100" s="92" t="s">
         <v>332</v>
@@ -29164,16 +29146,16 @@
         <v>93</v>
       </c>
       <c r="B101" s="92" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C101" s="92" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D101" s="92" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E101" s="92" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F101" s="92" t="s">
         <v>332</v>
@@ -29194,16 +29176,16 @@
         <v>94</v>
       </c>
       <c r="B102" s="92" t="s">
+        <v>807</v>
+      </c>
+      <c r="C102" s="92" t="s">
+        <v>808</v>
+      </c>
+      <c r="D102" s="92" t="s">
         <v>809</v>
       </c>
-      <c r="C102" s="92" t="s">
-        <v>810</v>
-      </c>
-      <c r="D102" s="92" t="s">
-        <v>811</v>
-      </c>
       <c r="E102" s="92" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F102" s="92" t="s">
         <v>332</v>
@@ -29224,16 +29206,16 @@
         <v>95</v>
       </c>
       <c r="B103" s="92" t="s">
+        <v>810</v>
+      </c>
+      <c r="C103" s="92" t="s">
+        <v>811</v>
+      </c>
+      <c r="D103" s="92" t="s">
         <v>812</v>
       </c>
-      <c r="C103" s="92" t="s">
-        <v>813</v>
-      </c>
-      <c r="D103" s="92" t="s">
-        <v>814</v>
-      </c>
       <c r="E103" s="92" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F103" s="92" t="s">
         <v>332</v>
@@ -29254,16 +29236,16 @@
         <v>96</v>
       </c>
       <c r="B104" s="92" t="s">
+        <v>813</v>
+      </c>
+      <c r="C104" s="92" t="s">
+        <v>814</v>
+      </c>
+      <c r="D104" s="92" t="s">
         <v>815</v>
       </c>
-      <c r="C104" s="92" t="s">
-        <v>816</v>
-      </c>
-      <c r="D104" s="92" t="s">
-        <v>817</v>
-      </c>
       <c r="E104" s="92" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F104" s="92" t="s">
         <v>332</v>
@@ -29284,16 +29266,16 @@
         <v>97</v>
       </c>
       <c r="B105" s="92" t="s">
+        <v>816</v>
+      </c>
+      <c r="C105" s="92" t="s">
+        <v>817</v>
+      </c>
+      <c r="D105" s="92" t="s">
         <v>818</v>
       </c>
-      <c r="C105" s="92" t="s">
-        <v>819</v>
-      </c>
-      <c r="D105" s="92" t="s">
-        <v>820</v>
-      </c>
       <c r="E105" s="92" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F105" s="92" t="s">
         <v>332</v>
@@ -29314,16 +29296,16 @@
         <v>98</v>
       </c>
       <c r="B106" s="92" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C106" s="92" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D106" s="92" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E106" s="92" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F106" s="92" t="s">
         <v>332</v>
@@ -29344,16 +29326,16 @@
         <v>99</v>
       </c>
       <c r="B107" s="92" t="s">
+        <v>821</v>
+      </c>
+      <c r="C107" s="92" t="s">
+        <v>822</v>
+      </c>
+      <c r="D107" s="92" t="s">
         <v>823</v>
       </c>
-      <c r="C107" s="92" t="s">
-        <v>824</v>
-      </c>
-      <c r="D107" s="92" t="s">
-        <v>825</v>
-      </c>
       <c r="E107" s="92" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F107" s="92" t="s">
         <v>332</v>
@@ -29374,16 +29356,16 @@
         <v>100</v>
       </c>
       <c r="B108" s="92" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C108" s="92" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D108" s="92" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E108" s="92" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F108" s="92" t="s">
         <v>332</v>
@@ -29404,16 +29386,16 @@
         <v>101</v>
       </c>
       <c r="B109" s="92" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C109" s="92" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D109" s="92" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E109" s="92" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F109" s="92" t="s">
         <v>332</v>
@@ -29434,16 +29416,16 @@
         <v>102</v>
       </c>
       <c r="B110" s="92" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C110" s="92" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D110" s="92" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E110" s="92" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F110" s="92" t="s">
         <v>332</v>
@@ -29464,16 +29446,16 @@
         <v>103</v>
       </c>
       <c r="B111" s="92" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C111" s="92" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D111" s="92" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E111" s="92" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F111" s="92" t="s">
         <v>332</v>
@@ -29494,16 +29476,16 @@
         <v>104</v>
       </c>
       <c r="B112" s="92" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C112" s="92" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D112" s="92" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E112" s="92" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F112" s="92" t="s">
         <v>332</v>
@@ -29524,16 +29506,16 @@
         <v>105</v>
       </c>
       <c r="B113" s="92" t="s">
+        <v>834</v>
+      </c>
+      <c r="C113" s="92" t="s">
+        <v>835</v>
+      </c>
+      <c r="D113" s="92" t="s">
         <v>836</v>
       </c>
-      <c r="C113" s="92" t="s">
-        <v>837</v>
-      </c>
-      <c r="D113" s="92" t="s">
-        <v>838</v>
-      </c>
       <c r="E113" s="92" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F113" s="92" t="s">
         <v>332</v>
@@ -29554,16 +29536,16 @@
         <v>106</v>
       </c>
       <c r="B114" s="92" t="s">
+        <v>837</v>
+      </c>
+      <c r="C114" s="92" t="s">
+        <v>838</v>
+      </c>
+      <c r="D114" s="92" t="s">
         <v>839</v>
       </c>
-      <c r="C114" s="92" t="s">
-        <v>840</v>
-      </c>
-      <c r="D114" s="92" t="s">
-        <v>841</v>
-      </c>
       <c r="E114" s="92" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F114" s="92" t="s">
         <v>332</v>
@@ -29584,16 +29566,16 @@
         <v>107</v>
       </c>
       <c r="B115" s="92" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C115" s="92" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D115" s="92" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E115" s="92" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F115" s="92" t="s">
         <v>332</v>
@@ -29614,16 +29596,16 @@
         <v>108</v>
       </c>
       <c r="B116" s="92" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C116" s="92" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D116" s="92" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E116" s="92" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F116" s="92" t="s">
         <v>332</v>
@@ -29644,16 +29626,16 @@
         <v>109</v>
       </c>
       <c r="B117" s="92" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C117" s="92" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D117" s="92" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E117" s="92" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F117" s="92" t="s">
         <v>332</v>
@@ -29674,16 +29656,16 @@
         <v>110</v>
       </c>
       <c r="B118" s="92" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C118" s="92" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D118" s="92" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E118" s="92" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F118" s="92" t="s">
         <v>332</v>
@@ -29704,16 +29686,16 @@
         <v>111</v>
       </c>
       <c r="B119" s="92" t="s">
+        <v>848</v>
+      </c>
+      <c r="C119" s="92" t="s">
+        <v>849</v>
+      </c>
+      <c r="D119" s="92" t="s">
         <v>850</v>
       </c>
-      <c r="C119" s="92" t="s">
-        <v>851</v>
-      </c>
-      <c r="D119" s="92" t="s">
-        <v>852</v>
-      </c>
       <c r="E119" s="92" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F119" s="92" t="s">
         <v>332</v>
@@ -29734,16 +29716,16 @@
         <v>112</v>
       </c>
       <c r="B120" s="92" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C120" s="92" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D120" s="92" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E120" s="92" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F120" s="92" t="s">
         <v>332</v>
@@ -29764,16 +29746,16 @@
         <v>113</v>
       </c>
       <c r="B121" s="92" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C121" s="92" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D121" s="92" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E121" s="92" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F121" s="92" t="s">
         <v>332</v>
@@ -29794,16 +29776,16 @@
         <v>114</v>
       </c>
       <c r="B122" s="92" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C122" s="92" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D122" s="92" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E122" s="92" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F122" s="92" t="s">
         <v>332</v>
@@ -29824,16 +29806,16 @@
         <v>115</v>
       </c>
       <c r="B123" s="92" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C123" s="92" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D123" s="92" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E123" s="92" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F123" s="92" t="s">
         <v>332</v>
@@ -29854,16 +29836,16 @@
         <v>116</v>
       </c>
       <c r="B124" s="92" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C124" s="92" t="s">
+        <v>857</v>
+      </c>
+      <c r="D124" s="92" t="s">
         <v>859</v>
       </c>
-      <c r="D124" s="92" t="s">
-        <v>861</v>
-      </c>
       <c r="E124" s="92" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F124" s="92" t="s">
         <v>332</v>
@@ -29884,16 +29866,16 @@
         <v>117</v>
       </c>
       <c r="B125" s="92" t="s">
+        <v>860</v>
+      </c>
+      <c r="C125" s="92" t="s">
+        <v>861</v>
+      </c>
+      <c r="D125" s="92" t="s">
         <v>862</v>
       </c>
-      <c r="C125" s="92" t="s">
-        <v>863</v>
-      </c>
-      <c r="D125" s="92" t="s">
-        <v>864</v>
-      </c>
       <c r="E125" s="92" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F125" s="92" t="s">
         <v>332</v>
@@ -29914,16 +29896,16 @@
         <v>118</v>
       </c>
       <c r="B126" s="92" t="s">
+        <v>863</v>
+      </c>
+      <c r="C126" s="92" t="s">
+        <v>864</v>
+      </c>
+      <c r="D126" s="92" t="s">
         <v>865</v>
       </c>
-      <c r="C126" s="92" t="s">
-        <v>866</v>
-      </c>
-      <c r="D126" s="92" t="s">
-        <v>867</v>
-      </c>
       <c r="E126" s="92" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F126" s="92" t="s">
         <v>332</v>
@@ -29944,16 +29926,16 @@
         <v>119</v>
       </c>
       <c r="B127" s="92" t="s">
+        <v>866</v>
+      </c>
+      <c r="C127" s="92" t="s">
+        <v>867</v>
+      </c>
+      <c r="D127" s="92" t="s">
         <v>868</v>
       </c>
-      <c r="C127" s="92" t="s">
-        <v>869</v>
-      </c>
-      <c r="D127" s="92" t="s">
-        <v>870</v>
-      </c>
       <c r="E127" s="92" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F127" s="92" t="s">
         <v>332</v>
@@ -29974,16 +29956,16 @@
         <v>120</v>
       </c>
       <c r="B128" s="92" t="s">
+        <v>869</v>
+      </c>
+      <c r="C128" s="92" t="s">
+        <v>870</v>
+      </c>
+      <c r="D128" s="92" t="s">
         <v>871</v>
       </c>
-      <c r="C128" s="92" t="s">
-        <v>872</v>
-      </c>
-      <c r="D128" s="92" t="s">
-        <v>873</v>
-      </c>
       <c r="E128" s="92" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F128" s="92" t="s">
         <v>332</v>
@@ -30004,16 +29986,16 @@
         <v>121</v>
       </c>
       <c r="B129" s="92" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C129" s="92" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D129" s="92" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E129" s="92" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F129" s="92" t="s">
         <v>332</v>
@@ -30034,16 +30016,16 @@
         <v>122</v>
       </c>
       <c r="B130" s="92" t="s">
+        <v>874</v>
+      </c>
+      <c r="C130" s="92" t="s">
+        <v>875</v>
+      </c>
+      <c r="D130" s="92" t="s">
         <v>876</v>
       </c>
-      <c r="C130" s="92" t="s">
-        <v>877</v>
-      </c>
-      <c r="D130" s="92" t="s">
-        <v>878</v>
-      </c>
       <c r="E130" s="92" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F130" s="92" t="s">
         <v>332</v>
@@ -30064,16 +30046,16 @@
         <v>123</v>
       </c>
       <c r="B131" s="92" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C131" s="92" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D131" s="92" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E131" s="92" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F131" s="92" t="s">
         <v>332</v>
@@ -30094,16 +30076,16 @@
         <v>124</v>
       </c>
       <c r="B132" s="92" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C132" s="92" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D132" s="92" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E132" s="92" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F132" s="92" t="s">
         <v>332</v>
@@ -30124,16 +30106,16 @@
         <v>125</v>
       </c>
       <c r="B133" s="92" t="s">
+        <v>881</v>
+      </c>
+      <c r="C133" s="92" t="s">
+        <v>882</v>
+      </c>
+      <c r="D133" s="92" t="s">
         <v>883</v>
       </c>
-      <c r="C133" s="92" t="s">
-        <v>884</v>
-      </c>
-      <c r="D133" s="92" t="s">
-        <v>885</v>
-      </c>
       <c r="E133" s="92" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F133" s="92" t="s">
         <v>332</v>
@@ -30154,16 +30136,16 @@
         <v>126</v>
       </c>
       <c r="B134" s="92" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C134" s="92" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D134" s="92" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E134" s="92" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F134" s="92" t="s">
         <v>332</v>
@@ -30184,16 +30166,16 @@
         <v>127</v>
       </c>
       <c r="B135" s="92" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C135" s="92" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D135" s="92" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E135" s="92" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F135" s="92" t="s">
         <v>332</v>
@@ -30214,16 +30196,16 @@
         <v>128</v>
       </c>
       <c r="B136" s="92" t="s">
+        <v>888</v>
+      </c>
+      <c r="C136" s="92" t="s">
+        <v>889</v>
+      </c>
+      <c r="D136" s="92" t="s">
         <v>890</v>
       </c>
-      <c r="C136" s="92" t="s">
-        <v>891</v>
-      </c>
-      <c r="D136" s="92" t="s">
-        <v>892</v>
-      </c>
       <c r="E136" s="92" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F136" s="92" t="s">
         <v>332</v>
@@ -30244,16 +30226,16 @@
         <v>129</v>
       </c>
       <c r="B137" s="92" t="s">
+        <v>891</v>
+      </c>
+      <c r="C137" s="92" t="s">
+        <v>892</v>
+      </c>
+      <c r="D137" s="92" t="s">
         <v>893</v>
       </c>
-      <c r="C137" s="92" t="s">
-        <v>894</v>
-      </c>
-      <c r="D137" s="92" t="s">
-        <v>895</v>
-      </c>
       <c r="E137" s="92" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F137" s="92" t="s">
         <v>332</v>
@@ -30274,16 +30256,16 @@
         <v>130</v>
       </c>
       <c r="B138" s="92" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C138" s="92" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D138" s="92" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E138" s="92" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F138" s="92" t="s">
         <v>332</v>
@@ -30304,16 +30286,16 @@
         <v>131</v>
       </c>
       <c r="B139" s="92" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C139" s="92" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D139" s="92" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E139" s="92" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F139" s="92" t="s">
         <v>332</v>
@@ -30334,16 +30316,16 @@
         <v>132</v>
       </c>
       <c r="B140" s="92" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C140" s="92" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D140" s="92" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E140" s="92" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F140" s="92" t="s">
         <v>332</v>
@@ -30364,16 +30346,16 @@
         <v>133</v>
       </c>
       <c r="B141" s="92" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C141" s="92" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D141" s="92" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="E141" s="92" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F141" s="92" t="s">
         <v>332</v>
@@ -30394,16 +30376,16 @@
         <v>134</v>
       </c>
       <c r="B142" s="92" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C142" s="92" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="D142" s="92" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E142" s="92" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F142" s="92" t="s">
         <v>332</v>
@@ -30424,16 +30406,16 @@
         <v>135</v>
       </c>
       <c r="B143" s="92" t="s">
+        <v>904</v>
+      </c>
+      <c r="C143" s="92" t="s">
+        <v>905</v>
+      </c>
+      <c r="D143" s="92" t="s">
         <v>906</v>
       </c>
-      <c r="C143" s="92" t="s">
-        <v>907</v>
-      </c>
-      <c r="D143" s="92" t="s">
-        <v>908</v>
-      </c>
       <c r="E143" s="92" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F143" s="92" t="s">
         <v>332</v>
@@ -30454,16 +30436,16 @@
         <v>136</v>
       </c>
       <c r="B144" s="92" t="s">
+        <v>907</v>
+      </c>
+      <c r="C144" s="92" t="s">
+        <v>908</v>
+      </c>
+      <c r="D144" s="92" t="s">
         <v>909</v>
       </c>
-      <c r="C144" s="92" t="s">
-        <v>910</v>
-      </c>
-      <c r="D144" s="92" t="s">
-        <v>911</v>
-      </c>
       <c r="E144" s="92" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F144" s="92" t="s">
         <v>332</v>
@@ -30484,16 +30466,16 @@
         <v>137</v>
       </c>
       <c r="B145" s="92" t="s">
+        <v>910</v>
+      </c>
+      <c r="C145" s="92" t="s">
+        <v>911</v>
+      </c>
+      <c r="D145" s="92" t="s">
         <v>912</v>
       </c>
-      <c r="C145" s="92" t="s">
-        <v>913</v>
-      </c>
-      <c r="D145" s="92" t="s">
-        <v>914</v>
-      </c>
       <c r="E145" s="92" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F145" s="92" t="s">
         <v>332</v>
@@ -30514,16 +30496,16 @@
         <v>138</v>
       </c>
       <c r="B146" s="92" t="s">
+        <v>913</v>
+      </c>
+      <c r="C146" s="92" t="s">
+        <v>914</v>
+      </c>
+      <c r="D146" s="92" t="s">
         <v>915</v>
       </c>
-      <c r="C146" s="92" t="s">
-        <v>916</v>
-      </c>
-      <c r="D146" s="92" t="s">
-        <v>917</v>
-      </c>
       <c r="E146" s="92" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F146" s="92" t="s">
         <v>332</v>
@@ -30544,16 +30526,16 @@
         <v>139</v>
       </c>
       <c r="B147" s="92" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C147" s="92" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D147" s="92" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="E147" s="92" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F147" s="92" t="s">
         <v>332</v>
@@ -30574,16 +30556,16 @@
         <v>140</v>
       </c>
       <c r="B148" s="92" t="s">
+        <v>918</v>
+      </c>
+      <c r="C148" s="92" t="s">
+        <v>919</v>
+      </c>
+      <c r="D148" s="92" t="s">
         <v>920</v>
       </c>
-      <c r="C148" s="92" t="s">
-        <v>921</v>
-      </c>
-      <c r="D148" s="92" t="s">
-        <v>922</v>
-      </c>
       <c r="E148" s="92" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F148" s="92" t="s">
         <v>332</v>
@@ -30604,16 +30586,16 @@
         <v>141</v>
       </c>
       <c r="B149" s="92" t="s">
+        <v>921</v>
+      </c>
+      <c r="C149" s="92" t="s">
+        <v>922</v>
+      </c>
+      <c r="D149" s="92" t="s">
         <v>923</v>
       </c>
-      <c r="C149" s="92" t="s">
-        <v>924</v>
-      </c>
-      <c r="D149" s="92" t="s">
-        <v>925</v>
-      </c>
       <c r="E149" s="92" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F149" s="92" t="s">
         <v>332</v>
@@ -30634,16 +30616,16 @@
         <v>142</v>
       </c>
       <c r="B150" s="92" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C150" s="92" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D150" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="E150" s="92" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F150" s="92" t="s">
         <v>332</v>
@@ -30664,16 +30646,16 @@
         <v>143</v>
       </c>
       <c r="B151" s="92" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C151" s="92" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D151" s="92" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="E151" s="92" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F151" s="92" t="s">
         <v>332</v>
@@ -30694,16 +30676,16 @@
         <v>144</v>
       </c>
       <c r="B152" s="92" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C152" s="92" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D152" s="92" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E152" s="92" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F152" s="92" t="s">
         <v>332</v>
@@ -30724,16 +30706,16 @@
         <v>145</v>
       </c>
       <c r="B153" s="92" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C153" s="92" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D153" s="92" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E153" s="92" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F153" s="92" t="s">
         <v>332</v>
@@ -30754,16 +30736,16 @@
         <v>146</v>
       </c>
       <c r="B154" s="92" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C154" s="92" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D154" s="92" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E154" s="92" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F154" s="92" t="s">
         <v>332</v>
@@ -30784,16 +30766,16 @@
         <v>147</v>
       </c>
       <c r="B155" s="92" t="s">
+        <v>565</v>
+      </c>
+      <c r="C155" s="92" t="s">
+        <v>566</v>
+      </c>
+      <c r="D155" s="92" t="s">
         <v>567</v>
       </c>
-      <c r="C155" s="92" t="s">
-        <v>568</v>
-      </c>
-      <c r="D155" s="92" t="s">
-        <v>569</v>
-      </c>
       <c r="E155" s="92" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F155" s="92" t="s">
         <v>332</v>
@@ -30814,16 +30796,16 @@
         <v>148</v>
       </c>
       <c r="B156" s="92" t="s">
+        <v>932</v>
+      </c>
+      <c r="C156" s="92" t="s">
+        <v>933</v>
+      </c>
+      <c r="D156" s="92" t="s">
         <v>934</v>
       </c>
-      <c r="C156" s="92" t="s">
+      <c r="E156" s="92" t="s">
         <v>935</v>
-      </c>
-      <c r="D156" s="92" t="s">
-        <v>936</v>
-      </c>
-      <c r="E156" s="92" t="s">
-        <v>937</v>
       </c>
       <c r="F156" s="92" t="s">
         <v>0</v>
@@ -30844,16 +30826,16 @@
         <v>149</v>
       </c>
       <c r="B157" s="92" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C157" s="92" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D157" s="92" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E157" s="92" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F157" s="92" t="s">
         <v>0</v>
@@ -31115,7 +31097,7 @@
       <c r="E2" s="72"/>
       <c r="F2" s="72"/>
       <c r="G2" s="468" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H2" s="469"/>
     </row>
@@ -31144,7 +31126,7 @@
     </row>
     <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="365" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B5" s="75"/>
       <c r="C5" s="75"/>
@@ -31202,19 +31184,19 @@
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A9" s="92" t="s">
+        <v>936</v>
+      </c>
+      <c r="B9" s="92" t="s">
+        <v>788</v>
+      </c>
+      <c r="C9" s="92" t="s">
+        <v>522</v>
+      </c>
+      <c r="D9" s="92" t="s">
+        <v>937</v>
+      </c>
+      <c r="E9" s="92" t="s">
         <v>938</v>
-      </c>
-      <c r="B9" s="92" t="s">
-        <v>790</v>
-      </c>
-      <c r="C9" s="92" t="s">
-        <v>524</v>
-      </c>
-      <c r="D9" s="92" t="s">
-        <v>939</v>
-      </c>
-      <c r="E9" s="92" t="s">
-        <v>940</v>
       </c>
       <c r="F9" s="92">
         <v>3</v>
@@ -31228,19 +31210,19 @@
     </row>
     <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="92" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B10" s="92" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C10" s="92" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D10" s="92" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E10" s="92" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="F10" s="92">
         <v>3</v>
@@ -31462,7 +31444,7 @@
       <c r="E2" s="72"/>
       <c r="F2" s="72"/>
       <c r="G2" s="474" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H2" s="474"/>
     </row>
@@ -31491,7 +31473,7 @@
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="350" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B5" s="75"/>
       <c r="C5" s="75"/>
@@ -32005,7 +31987,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="479" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B1" s="479"/>
       <c r="C1" s="479"/>
@@ -32053,7 +32035,7 @@
     </row>
     <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="444" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B4" s="398"/>
       <c r="C4" s="398"/>
@@ -32113,34 +32095,34 @@
         <v>64</v>
       </c>
       <c r="B8" s="85" t="s">
+        <v>441</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>442</v>
+      </c>
+      <c r="D8" s="85" t="s">
         <v>443</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="E8" s="85" t="s">
         <v>444</v>
       </c>
-      <c r="D8" s="85" t="s">
+      <c r="F8" s="85" t="s">
         <v>445</v>
       </c>
-      <c r="E8" s="85" t="s">
+      <c r="G8" s="85" t="s">
         <v>446</v>
       </c>
-      <c r="F8" s="85" t="s">
+      <c r="H8" s="85" t="s">
         <v>447</v>
       </c>
-      <c r="G8" s="85" t="s">
+      <c r="I8" s="85" t="s">
         <v>448</v>
       </c>
-      <c r="H8" s="85" t="s">
+      <c r="J8" s="85" t="s">
         <v>449</v>
       </c>
-      <c r="I8" s="85" t="s">
+      <c r="K8" s="85" t="s">
         <v>450</v>
-      </c>
-      <c r="J8" s="85" t="s">
-        <v>451</v>
-      </c>
-      <c r="K8" s="85" t="s">
-        <v>452</v>
       </c>
       <c r="L8" s="85" t="s">
         <v>307</v>
@@ -32151,26 +32133,26 @@
         <v>1</v>
       </c>
       <c r="B9" s="446" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="C9" s="92" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="D9" s="92">
         <v>205284789</v>
       </c>
       <c r="E9" s="92" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="F9" s="92" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="G9" s="92"/>
       <c r="H9" s="92" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="I9" s="92" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="J9" s="4">
         <v>7.3000000000000001E-3</v>
@@ -32185,26 +32167,26 @@
         <v>2</v>
       </c>
       <c r="B10" s="446" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="C10" s="92" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D10" s="92">
         <v>404399664</v>
       </c>
       <c r="E10" s="92" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="F10" s="92" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="G10" s="92"/>
       <c r="H10" s="92" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="I10" s="92" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="J10" s="4">
         <v>5.0000000000000001E-3</v>
@@ -32219,24 +32201,24 @@
         <v>3</v>
       </c>
       <c r="B11" s="446" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="C11" s="92" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D11" s="92">
         <v>405025529</v>
       </c>
       <c r="E11" s="92" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="F11" s="92"/>
       <c r="G11" s="92"/>
       <c r="H11" s="92" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="I11" s="92" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="J11" s="4">
         <v>1923</v>
@@ -32289,7 +32271,7 @@
       <c r="H14" s="82"/>
       <c r="I14" s="82"/>
       <c r="J14" s="82" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="K14" s="448">
         <f>SUM(K9:K13)</f>
@@ -32312,7 +32294,7 @@
     </row>
     <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="451" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B16" s="451"/>
       <c r="C16" s="449"/>
@@ -32327,7 +32309,7 @@
     </row>
     <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="451" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B17" s="451"/>
       <c r="C17" s="449"/>
@@ -32342,7 +32324,7 @@
     </row>
     <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="452" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B18" s="451"/>
       <c r="C18" s="450"/>
@@ -32357,7 +32339,7 @@
     </row>
     <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="452" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B19" s="451"/>
       <c r="C19" s="450"/>
@@ -32447,7 +32429,7 @@
       <c r="E25" s="457"/>
       <c r="F25" s="458"/>
       <c r="G25" s="482" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H25" s="482"/>
       <c r="I25" s="482"/>
